--- a/analysen/choropleth_FREIE WÄHLER.xlsx
+++ b/analysen/choropleth_FREIE WÄHLER.xlsx
@@ -2933,10 +2933,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>1.70001460493647</v>
+        <v>1.6957300817272</v>
       </c>
       <c r="G2" t="n">
-        <v>0.081255562542998</v>
+        <v>0.0769710393337271</v>
       </c>
     </row>
     <row r="3">
@@ -2956,10 +2956,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8176461345066</v>
+        <v>1.81321566568175</v>
       </c>
       <c r="G3" t="n">
-        <v>0.106132691721388</v>
+        <v>0.101702222896537</v>
       </c>
     </row>
     <row r="4">
@@ -2979,10 +2979,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>2.51025971302759</v>
+        <v>2.50306162071746</v>
       </c>
       <c r="G4" t="n">
-        <v>0.211559433208556</v>
+        <v>0.204361340898432</v>
       </c>
     </row>
     <row r="5">
@@ -3002,10 +3002,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>2.37686646380299</v>
+        <v>2.36838162058297</v>
       </c>
       <c r="G5" t="n">
-        <v>0.409461042545288</v>
+        <v>0.400976199325275</v>
       </c>
     </row>
     <row r="6">
@@ -3025,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>2.28645056971779</v>
+        <v>2.27592797505281</v>
       </c>
       <c r="G6" t="n">
-        <v>0.30968581180071</v>
+        <v>0.299163217135727</v>
       </c>
     </row>
     <row r="7">
@@ -3048,10 +3048,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>3.40398201669878</v>
+        <v>3.44379467186485</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.28351798330122</v>
+        <v>-0.243705328135153</v>
       </c>
     </row>
     <row r="8">
@@ -3071,10 +3071,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>2.84474445515911</v>
+        <v>2.85161913968101</v>
       </c>
       <c r="G8" t="n">
-        <v>0.145949274436222</v>
+        <v>0.152823958958114</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +3094,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>4.75006217358866</v>
+        <v>4.7394540942928</v>
       </c>
       <c r="G9" t="n">
-        <v>0.798622040287065</v>
+        <v>0.78801396099121</v>
       </c>
     </row>
     <row r="10">
@@ -3117,10 +3117,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>5.02793296089385</v>
+        <v>4.99826449149601</v>
       </c>
       <c r="G10" t="n">
-        <v>0.165641223389605</v>
+        <v>0.135972753991758</v>
       </c>
     </row>
     <row r="11">
@@ -3140,10 +3140,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>3.3934576582085</v>
+        <v>3.3872444308819</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0694066476517325</v>
+        <v>-0.0756198749783277</v>
       </c>
     </row>
     <row r="12">
@@ -3163,10 +3163,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>4.11413404114134</v>
+        <v>4.10596026490066</v>
       </c>
       <c r="G12" t="n">
-        <v>0.134673193901288</v>
+        <v>0.12649941766061</v>
       </c>
     </row>
     <row r="13">
@@ -3186,10 +3186,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>2.3403543965229</v>
+        <v>2.33644859813084</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0173417974818135</v>
+        <v>-0.0212475958738749</v>
       </c>
     </row>
     <row r="14">
@@ -3209,10 +3209,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>3.54946897708217</v>
+        <v>3.54649539234851</v>
       </c>
       <c r="G14" t="n">
-        <v>0.109069262592518</v>
+        <v>0.106095677858856</v>
       </c>
     </row>
     <row r="15">
@@ -3278,10 +3278,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>5.9576345984113</v>
+        <v>5.93145869947276</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.319235564959296</v>
+        <v>-0.345411463897834</v>
       </c>
     </row>
     <row r="18">
@@ -3301,10 +3301,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>9.26794085827624</v>
+        <v>9.28468208092486</v>
       </c>
       <c r="G18" t="n">
-        <v>1.47478718019903</v>
+        <v>1.49152840284765</v>
       </c>
     </row>
     <row r="19">
@@ -3324,10 +3324,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>3.66795366795367</v>
+        <v>3.66323907455013</v>
       </c>
       <c r="G19" t="n">
-        <v>0.795198008312763</v>
+        <v>0.790483414909223</v>
       </c>
     </row>
     <row r="20">
@@ -3347,10 +3347,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>3.9161610590182</v>
+        <v>3.89895661724327</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.421057699452928</v>
+        <v>-0.438262141227857</v>
       </c>
     </row>
     <row r="21">
@@ -3370,10 +3370,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>5.49890750182083</v>
+        <v>5.50492161866569</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.219268127859224</v>
+        <v>-0.21325401101436</v>
       </c>
     </row>
     <row r="22">
@@ -3393,10 +3393,10 @@
         <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>3.4278459585273</v>
+        <v>3.4134007585335</v>
       </c>
       <c r="G22" t="n">
-        <v>0.666339682376668</v>
+        <v>0.651894482382875</v>
       </c>
     </row>
     <row r="23">
@@ -3416,10 +3416,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>2.80332245624444</v>
+        <v>2.79441117764471</v>
       </c>
       <c r="G23" t="n">
-        <v>1.24952591564051</v>
+        <v>1.24061463704078</v>
       </c>
     </row>
     <row r="24">
@@ -3439,10 +3439,10 @@
         <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>3.1505728314239</v>
+        <v>3.14157486740106</v>
       </c>
       <c r="G24" t="n">
-        <v>0.447344515593479</v>
+        <v>0.438346551570644</v>
       </c>
     </row>
     <row r="25">
@@ -3462,10 +3462,10 @@
         <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>3.32503295737513</v>
+        <v>3.32114118507681</v>
       </c>
       <c r="G25" t="n">
-        <v>0.978824087561108</v>
+        <v>0.974932315262791</v>
       </c>
     </row>
     <row r="26">
@@ -3485,10 +3485,10 @@
         <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>3.64213389753665</v>
+        <v>3.63389626055489</v>
       </c>
       <c r="G26" t="n">
-        <v>1.14736246042879</v>
+        <v>1.13912482344703</v>
       </c>
     </row>
     <row r="27">
@@ -3508,10 +3508,10 @@
         <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>3.23033707865169</v>
+        <v>3.22637208486761</v>
       </c>
       <c r="G27" t="n">
-        <v>0.557526018743852</v>
+        <v>0.553561024959779</v>
       </c>
     </row>
     <row r="28">
@@ -3531,10 +3531,10 @@
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>3.64403528960491</v>
+        <v>3.64543361473523</v>
       </c>
       <c r="G28" t="n">
-        <v>0.344072367839986</v>
+        <v>0.345470692970302</v>
       </c>
     </row>
     <row r="29">
@@ -3554,10 +3554,10 @@
         <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>2.84207126709011</v>
+        <v>2.83566058002148</v>
       </c>
       <c r="G29" t="n">
-        <v>0.618916904673999</v>
+        <v>0.612506217605375</v>
       </c>
     </row>
     <row r="30">
@@ -3577,10 +3577,10 @@
         <v>9</v>
       </c>
       <c r="F30" t="n">
-        <v>4.69135802469136</v>
+        <v>4.67158412363892</v>
       </c>
       <c r="G30" t="n">
-        <v>1.29553206077201</v>
+        <v>1.27575815971957</v>
       </c>
     </row>
     <row r="31">
@@ -3600,10 +3600,10 @@
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>3.43506226905707</v>
+        <v>3.42521834061135</v>
       </c>
       <c r="G31" t="n">
-        <v>1.0404899662767</v>
+        <v>1.03064603783099</v>
       </c>
     </row>
     <row r="32">
@@ -3623,10 +3623,10 @@
         <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>4.04371584699454</v>
+        <v>4.04077175100109</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.797378018489574</v>
+        <v>-0.800322114483017</v>
       </c>
     </row>
     <row r="33">
@@ -3646,10 +3646,10 @@
         <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>4.98084291187739</v>
+        <v>4.97322111706197</v>
       </c>
       <c r="G33" t="n">
-        <v>0.61420247127944</v>
+        <v>0.60658067646402</v>
       </c>
     </row>
     <row r="34">
@@ -3669,10 +3669,10 @@
         <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>4.40741736092448</v>
+        <v>4.3908969210174</v>
       </c>
       <c r="G34" t="n">
-        <v>1.43234365414346</v>
+        <v>1.41582321423638</v>
       </c>
     </row>
     <row r="35">
@@ -3692,10 +3692,10 @@
         <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>3.84028968934629</v>
+        <v>3.82897862232779</v>
       </c>
       <c r="G35" t="n">
-        <v>0.66204917923371</v>
+        <v>0.650738112215207</v>
       </c>
     </row>
     <row r="36">
@@ -3715,10 +3715,10 @@
         <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>4.54346876365225</v>
+        <v>4.52173913043478</v>
       </c>
       <c r="G36" t="n">
-        <v>1.23190159947315</v>
+        <v>1.21017196625568</v>
       </c>
     </row>
     <row r="37">
@@ -3761,10 +3761,10 @@
         <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>5.67073170731707</v>
+        <v>5.63294972743792</v>
       </c>
       <c r="G38" t="n">
-        <v>2.43419208239269</v>
+        <v>2.39641010251354</v>
       </c>
     </row>
     <row r="39">
@@ -3784,10 +3784,10 @@
         <v>9</v>
       </c>
       <c r="F39" t="n">
-        <v>4.32813286361349</v>
+        <v>4.33031218529708</v>
       </c>
       <c r="G39" t="n">
-        <v>1.47317492326172</v>
+        <v>1.47535424494531</v>
       </c>
     </row>
     <row r="40">
@@ -3807,10 +3807,10 @@
         <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>3.66474380726162</v>
+        <v>3.65853658536585</v>
       </c>
       <c r="G40" t="n">
-        <v>0.835841285107567</v>
+        <v>0.829634063211798</v>
       </c>
     </row>
     <row r="41">
@@ -3830,10 +3830,10 @@
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>3.74839537869063</v>
+        <v>3.73497058071118</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.23937303663962</v>
+        <v>-1.25279783461907</v>
       </c>
     </row>
     <row r="42">
@@ -3853,10 +3853,10 @@
         <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>2.33618233618234</v>
+        <v>2.328222600795</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.232168947993306</v>
+        <v>-0.240128683380639</v>
       </c>
     </row>
     <row r="43">
@@ -3899,10 +3899,10 @@
         <v>9</v>
       </c>
       <c r="F44" t="n">
-        <v>3.02267002518892</v>
+        <v>3.01724137931034</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.122460706148711</v>
+        <v>-0.127889352027283</v>
       </c>
     </row>
     <row r="45">
@@ -3922,10 +3922,10 @@
         <v>9</v>
       </c>
       <c r="F45" t="n">
-        <v>3.81622823267877</v>
+        <v>3.82047477744807</v>
       </c>
       <c r="G45" t="n">
-        <v>0.801335388508774</v>
+        <v>0.805581933278075</v>
       </c>
     </row>
     <row r="46">
@@ -3945,10 +3945,10 @@
         <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>3.48623853211009</v>
+        <v>3.4841075794621</v>
       </c>
       <c r="G46" t="n">
-        <v>0.285214204325201</v>
+        <v>0.283083251677211</v>
       </c>
     </row>
     <row r="47">
@@ -3968,10 +3968,10 @@
         <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>3.35208357249455</v>
+        <v>3.36483060613045</v>
       </c>
       <c r="G47" t="n">
-        <v>0.896111366911703</v>
+        <v>0.908858400547601</v>
       </c>
     </row>
     <row r="48">
@@ -3991,10 +3991,10 @@
         <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>3.45013477088949</v>
+        <v>3.43716433941998</v>
       </c>
       <c r="G48" t="n">
-        <v>1.20359099208764</v>
+        <v>1.19062056061814</v>
       </c>
     </row>
     <row r="49">
@@ -4014,10 +4014,10 @@
         <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>4.26666666666667</v>
+        <v>4.27807486631016</v>
       </c>
       <c r="G49" t="n">
-        <v>2.82302424578938</v>
+        <v>2.83443244543287</v>
       </c>
     </row>
     <row r="50">
@@ -4083,10 +4083,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>5.75403098324376</v>
+        <v>5.75767162290414</v>
       </c>
       <c r="G52" t="n">
-        <v>2.11530453749977</v>
+        <v>2.11894517716015</v>
       </c>
     </row>
     <row r="53">
@@ -4106,10 +4106,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>5.08302270416808</v>
+        <v>5.0471063257066</v>
       </c>
       <c r="G53" t="n">
-        <v>1.24722189663107</v>
+        <v>1.21130551816958</v>
       </c>
     </row>
     <row r="54">
@@ -4129,10 +4129,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>4.29266597149809</v>
+        <v>4.27705627705628</v>
       </c>
       <c r="G54" t="n">
-        <v>1.36722297584446</v>
+        <v>1.35161328140265</v>
       </c>
     </row>
     <row r="55">
@@ -4152,10 +4152,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>6.0303893637227</v>
+        <v>6.00614802553795</v>
       </c>
       <c r="G55" t="n">
-        <v>1.09211775878443</v>
+        <v>1.06787642059968</v>
       </c>
     </row>
     <row r="56">
@@ -4175,10 +4175,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>4.69987678225664</v>
+        <v>4.69739619985925</v>
       </c>
       <c r="G56" t="n">
-        <v>0.598486182010209</v>
+        <v>0.596005599612818</v>
       </c>
     </row>
     <row r="57">
@@ -4198,10 +4198,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>5.59345156889495</v>
+        <v>5.57281553398058</v>
       </c>
       <c r="G57" t="n">
-        <v>0.983022738615105</v>
+        <v>0.962386703700736</v>
       </c>
     </row>
     <row r="58">
@@ -4221,10 +4221,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>5.28325907065563</v>
+        <v>5.26482714874722</v>
       </c>
       <c r="G58" t="n">
-        <v>1.30236735091041</v>
+        <v>1.283935429002</v>
       </c>
     </row>
     <row r="59">
@@ -4244,10 +4244,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>5.64603691639522</v>
+        <v>5.63075257173795</v>
       </c>
       <c r="G59" t="n">
-        <v>2.10115412622941</v>
+        <v>2.08586978157214</v>
       </c>
     </row>
     <row r="60">
@@ -4290,10 +4290,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>6.00280504908836</v>
+        <v>5.99943930473787</v>
       </c>
       <c r="G61" t="n">
-        <v>2.86336498385324</v>
+        <v>2.85999923950276</v>
       </c>
     </row>
     <row r="62">
@@ -4313,10 +4313,10 @@
         <v>9</v>
       </c>
       <c r="F62" t="n">
-        <v>6.53804930332262</v>
+        <v>6.48936170212766</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.0858823206090085</v>
+        <v>-0.134569921803964</v>
       </c>
     </row>
     <row r="63">
@@ -4336,10 +4336,10 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>7.23809523809524</v>
+        <v>7.23120837297812</v>
       </c>
       <c r="G63" t="n">
-        <v>0.603479853479853</v>
+        <v>0.596592988362732</v>
       </c>
     </row>
     <row r="64">
@@ -4359,10 +4359,10 @@
         <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>4.50221940393152</v>
+        <v>4.49082858950032</v>
       </c>
       <c r="G64" t="n">
-        <v>0.926146582084962</v>
+        <v>0.914755767653761</v>
       </c>
     </row>
     <row r="65">
@@ -4382,10 +4382,10 @@
         <v>9</v>
       </c>
       <c r="F65" t="n">
-        <v>6.27315386515189</v>
+        <v>6.27780523974296</v>
       </c>
       <c r="G65" t="n">
-        <v>0.256182921464566</v>
+        <v>0.260834296055632</v>
       </c>
     </row>
     <row r="66">
@@ -4405,10 +4405,10 @@
         <v>9</v>
       </c>
       <c r="F66" t="n">
-        <v>9.28176795580111</v>
+        <v>9.25984251968504</v>
       </c>
       <c r="G66" t="n">
-        <v>0.297269379401232</v>
+        <v>0.275343943285167</v>
       </c>
     </row>
     <row r="67">
@@ -4428,10 +4428,10 @@
         <v>9</v>
       </c>
       <c r="F67" t="n">
-        <v>7.08362947168917</v>
+        <v>7.04358068315666</v>
       </c>
       <c r="G67" t="n">
-        <v>1.46879207331519</v>
+        <v>1.42874328478267</v>
       </c>
     </row>
     <row r="68">
@@ -4451,10 +4451,10 @@
         <v>9</v>
       </c>
       <c r="F68" t="n">
-        <v>7.52314814814815</v>
+        <v>7.49279538904899</v>
       </c>
       <c r="G68" t="n">
-        <v>4.14227123319833</v>
+        <v>4.11191847409918</v>
       </c>
     </row>
     <row r="69">
@@ -4474,10 +4474,10 @@
         <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>4.66120625465376</v>
+        <v>4.64047442550037</v>
       </c>
       <c r="G69" t="n">
-        <v>0.611221310359873</v>
+        <v>0.590489481206483</v>
       </c>
     </row>
     <row r="70">
@@ -4497,10 +4497,10 @@
         <v>9</v>
       </c>
       <c r="F70" t="n">
-        <v>3.89908256880734</v>
+        <v>3.88719512195122</v>
       </c>
       <c r="G70" t="n">
-        <v>0.384949642909708</v>
+        <v>0.373062196053588</v>
       </c>
     </row>
     <row r="71">
@@ -4520,10 +4520,10 @@
         <v>9</v>
       </c>
       <c r="F71" t="n">
-        <v>3.6852207293666</v>
+        <v>3.68239355581128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.191677751848425</v>
+        <v>-0.194504925403751</v>
       </c>
     </row>
     <row r="72">
@@ -4543,10 +4543,10 @@
         <v>9</v>
       </c>
       <c r="F72" t="n">
-        <v>4.27631578947368</v>
+        <v>4.28100987925357</v>
       </c>
       <c r="G72" t="n">
-        <v>-1.07881386103364</v>
+        <v>-1.07411977125376</v>
       </c>
     </row>
     <row r="73">
@@ -4566,10 +4566,10 @@
         <v>9</v>
       </c>
       <c r="F73" t="n">
-        <v>6.14400889630247</v>
+        <v>6.1218836565097</v>
       </c>
       <c r="G73" t="n">
-        <v>1.74716560430698</v>
+        <v>1.72504036451421</v>
       </c>
     </row>
     <row r="74">
@@ -4589,10 +4589,10 @@
         <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>5.41294642857143</v>
+        <v>5.39188438021123</v>
       </c>
       <c r="G74" t="n">
-        <v>1.56230465494249</v>
+        <v>1.54124260658229</v>
       </c>
     </row>
     <row r="75">
@@ -4612,10 +4612,10 @@
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>6.6768994627782</v>
+        <v>6.6412213740458</v>
       </c>
       <c r="G75" t="n">
-        <v>1.88692157036848</v>
+        <v>1.85124348163607</v>
       </c>
     </row>
     <row r="76">
@@ -4635,10 +4635,10 @@
         <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>6.72696438665913</v>
+        <v>6.71557562076749</v>
       </c>
       <c r="G76" t="n">
-        <v>1.77150781650323</v>
+        <v>1.76011905061159</v>
       </c>
     </row>
     <row r="77">
@@ -4658,10 +4658,10 @@
         <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>9.00859066635709</v>
+        <v>8.98356100949294</v>
       </c>
       <c r="G77" t="n">
-        <v>2.73045752255231</v>
+        <v>2.70542786568815</v>
       </c>
     </row>
     <row r="78">
@@ -4681,10 +4681,10 @@
         <v>9</v>
       </c>
       <c r="F78" t="n">
-        <v>2.8169014084507</v>
+        <v>2.82186948853616</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.07952043712368</v>
+        <v>-2.07455235703823</v>
       </c>
     </row>
     <row r="79">
@@ -4704,10 +4704,10 @@
         <v>9</v>
       </c>
       <c r="F79" t="n">
-        <v>7.5552387740556</v>
+        <v>7.55793226381462</v>
       </c>
       <c r="G79" t="n">
-        <v>1.6271172475643</v>
+        <v>1.62981073732332</v>
       </c>
     </row>
     <row r="80">
@@ -4727,10 +4727,10 @@
         <v>9</v>
       </c>
       <c r="F80" t="n">
-        <v>4.29951690821256</v>
+        <v>4.27884615384615</v>
       </c>
       <c r="G80" t="n">
-        <v>0.548282949673568</v>
+        <v>0.527612195307161</v>
       </c>
     </row>
     <row r="81">
@@ -4750,10 +4750,10 @@
         <v>9</v>
       </c>
       <c r="F81" t="n">
-        <v>3.36626417855836</v>
+        <v>3.33696046427276</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8049366172308</v>
+        <v>0.775632902945199</v>
       </c>
     </row>
     <row r="82">
@@ -4773,10 +4773,10 @@
         <v>9</v>
       </c>
       <c r="F82" t="n">
-        <v>4.00340715502555</v>
+        <v>3.9662447257384</v>
       </c>
       <c r="G82" t="n">
-        <v>1.47531726738511</v>
+        <v>1.43815483809795</v>
       </c>
     </row>
     <row r="83">
@@ -4796,10 +4796,10 @@
         <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>4.59039548022599</v>
+        <v>4.60666194188519</v>
       </c>
       <c r="G83" t="n">
-        <v>0.448095285294215</v>
+        <v>0.464361746953414</v>
       </c>
     </row>
     <row r="84">
@@ -4819,10 +4819,10 @@
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>5.05823627287854</v>
+        <v>5.04145936981758</v>
       </c>
       <c r="G84" t="n">
-        <v>0.899404285266546</v>
+        <v>0.882627382205589</v>
       </c>
     </row>
     <row r="85">
@@ -4842,10 +4842,10 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>9.19937205651491</v>
+        <v>9.17345021916093</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.5249052204512</v>
+        <v>-1.55082705780519</v>
       </c>
     </row>
     <row r="86">
@@ -4865,10 +4865,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>6.96551724137931</v>
+        <v>6.94158075601375</v>
       </c>
       <c r="G86" t="n">
-        <v>1.48364279398762</v>
+        <v>1.45970630862206</v>
       </c>
     </row>
     <row r="87">
@@ -4888,10 +4888,10 @@
         <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>6.17195861576882</v>
+        <v>6.163163519772</v>
       </c>
       <c r="G87" t="n">
-        <v>1.76444416490177</v>
+        <v>1.75564906890495</v>
       </c>
     </row>
     <row r="88">
@@ -4911,10 +4911,10 @@
         <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>4.64426877470356</v>
+        <v>4.62143559488692</v>
       </c>
       <c r="G88" t="n">
-        <v>1.11485700999768</v>
+        <v>1.09202383018104</v>
       </c>
     </row>
     <row r="89">
@@ -4934,10 +4934,10 @@
         <v>9</v>
       </c>
       <c r="F89" t="n">
-        <v>5.84795321637427</v>
+        <v>5.87172538392051</v>
       </c>
       <c r="G89" t="n">
-        <v>2.71876233573055</v>
+        <v>2.74253450327679</v>
       </c>
     </row>
     <row r="90">
@@ -4957,10 +4957,10 @@
         <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>2.43569031937368</v>
+        <v>2.44510978043912</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.85199986043268</v>
+        <v>-1.84258039936724</v>
       </c>
     </row>
     <row r="91">
@@ -4980,10 +4980,10 @@
         <v>9</v>
       </c>
       <c r="F91" t="n">
-        <v>2.96101949025487</v>
+        <v>2.96769346356123</v>
       </c>
       <c r="G91" t="n">
-        <v>0.52199510001097</v>
+        <v>0.52866907331733</v>
       </c>
     </row>
     <row r="92">
@@ -5003,10 +5003,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>3.66201648700063</v>
+        <v>3.65795724465558</v>
       </c>
       <c r="G92" t="n">
-        <v>0.824262014452824</v>
+        <v>0.820202772107772</v>
       </c>
     </row>
     <row r="93">
@@ -5026,10 +5026,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>4.92753623188406</v>
+        <v>4.93468795355588</v>
       </c>
       <c r="G93" t="n">
-        <v>3.10680794056753</v>
+        <v>3.11395966223935</v>
       </c>
     </row>
     <row r="94">
@@ -5049,10 +5049,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>4.7467346288627</v>
+        <v>4.73767885532591</v>
       </c>
       <c r="G94" t="n">
-        <v>1.85524664965542</v>
+        <v>1.84619087611864</v>
       </c>
     </row>
     <row r="95">
@@ -5072,10 +5072,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>4.95376486129458</v>
+        <v>4.96688741721854</v>
       </c>
       <c r="G95" t="n">
-        <v>0.561000003413447</v>
+        <v>0.574122559337406</v>
       </c>
     </row>
     <row r="96">
@@ -5095,10 +5095,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>5.07836990595611</v>
+        <v>5.05933791380387</v>
       </c>
       <c r="G96" t="n">
-        <v>2.35857230949818</v>
+        <v>2.33954031734593</v>
       </c>
     </row>
     <row r="97">
@@ -5118,10 +5118,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>3.79310344827586</v>
+        <v>3.79048931771192</v>
       </c>
       <c r="G97" t="n">
-        <v>0.767166848852231</v>
+        <v>0.764552718288292</v>
       </c>
     </row>
     <row r="98">
@@ -5141,10 +5141,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>3.60307147076196</v>
+        <v>3.59404919723082</v>
       </c>
       <c r="G98" t="n">
-        <v>0.225730359309704</v>
+        <v>0.216708085778559</v>
       </c>
     </row>
     <row r="99">
@@ -5164,10 +5164,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>7.86920589292131</v>
+        <v>7.8494623655914</v>
       </c>
       <c r="G99" t="n">
-        <v>1.82404930151563</v>
+        <v>1.80430577418572</v>
       </c>
     </row>
     <row r="100">
@@ -5187,10 +5187,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>6.24290578887628</v>
+        <v>6.21468926553672</v>
       </c>
       <c r="G100" t="n">
-        <v>1.72823310264603</v>
+        <v>1.70001657930647</v>
       </c>
     </row>
     <row r="101">
@@ -5210,10 +5210,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>8.15627141877999</v>
+        <v>8.02968960863698</v>
       </c>
       <c r="G101" t="n">
-        <v>2.68699390358755</v>
+        <v>2.56041209344454</v>
       </c>
     </row>
     <row r="102">
@@ -5233,10 +5233,10 @@
         <v>9</v>
       </c>
       <c r="F102" t="n">
-        <v>6.94214876033058</v>
+        <v>6.94980694980695</v>
       </c>
       <c r="G102" t="n">
-        <v>1.35040066043916</v>
+        <v>1.35805884991553</v>
       </c>
     </row>
     <row r="103">
@@ -5256,10 +5256,10 @@
         <v>9</v>
       </c>
       <c r="F103" t="n">
-        <v>9.06547285954113</v>
+        <v>9.03513664249861</v>
       </c>
       <c r="G103" t="n">
-        <v>3.97685078978699</v>
+        <v>3.94651457274446</v>
       </c>
     </row>
     <row r="104">
@@ -5279,10 +5279,10 @@
         <v>9</v>
       </c>
       <c r="F104" t="n">
-        <v>5.31605395398043</v>
+        <v>5.31043593130779</v>
       </c>
       <c r="G104" t="n">
-        <v>1.01753074722937</v>
+        <v>1.01191272455674</v>
       </c>
     </row>
     <row r="105">
@@ -5302,10 +5302,10 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>10.9330045211673</v>
+        <v>10.9240246406571</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.636574766858606</v>
+        <v>-0.645554647368805</v>
       </c>
     </row>
     <row r="106">
@@ -5325,10 +5325,10 @@
         <v>9</v>
       </c>
       <c r="F106" t="n">
-        <v>7.85487847833744</v>
+        <v>7.82456140350877</v>
       </c>
       <c r="G106" t="n">
-        <v>0.695371318830283</v>
+        <v>0.665054244001611</v>
       </c>
     </row>
     <row r="107">
@@ -5348,10 +5348,10 @@
         <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>14.2342342342342</v>
+        <v>14.3375680580762</v>
       </c>
       <c r="G107" t="n">
-        <v>5.91476668015769</v>
+        <v>6.01810050399969</v>
       </c>
     </row>
     <row r="108">
@@ -5371,10 +5371,10 @@
         <v>9</v>
       </c>
       <c r="F108" t="n">
-        <v>5.00137400384721</v>
+        <v>4.97675690456658</v>
       </c>
       <c r="G108" t="n">
-        <v>1.86369480449639</v>
+        <v>1.83907770521576</v>
       </c>
     </row>
     <row r="109">
@@ -5394,10 +5394,10 @@
         <v>9</v>
       </c>
       <c r="F109" t="n">
-        <v>14.6294513955727</v>
+        <v>14.6364949446317</v>
       </c>
       <c r="G109" t="n">
-        <v>6.16904805076204</v>
+        <v>6.17609159982106</v>
       </c>
     </row>
     <row r="110">
@@ -5417,10 +5417,10 @@
         <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>4.82180293501048</v>
+        <v>4.81171548117155</v>
       </c>
       <c r="G110" t="n">
-        <v>1.29584798887924</v>
+        <v>1.2857605350403</v>
       </c>
     </row>
     <row r="111">
@@ -5440,10 +5440,10 @@
         <v>9</v>
       </c>
       <c r="F111" t="n">
-        <v>4.51186920295551</v>
+        <v>4.49420607579079</v>
       </c>
       <c r="G111" t="n">
-        <v>1.6425979192514</v>
+        <v>1.62493479208668</v>
       </c>
     </row>
     <row r="112">
@@ -5463,10 +5463,10 @@
         <v>9</v>
       </c>
       <c r="F112" t="n">
-        <v>6.13107822410148</v>
+        <v>6.17021276595745</v>
       </c>
       <c r="G112" t="n">
-        <v>2.48524489076815</v>
+        <v>2.52437943262411</v>
       </c>
     </row>
     <row r="113">
@@ -5486,10 +5486,10 @@
         <v>9</v>
       </c>
       <c r="F113" t="n">
-        <v>6.09397944199706</v>
+        <v>6.08058608058608</v>
       </c>
       <c r="G113" t="n">
-        <v>3.30805568833137</v>
+        <v>3.29466232692039</v>
       </c>
     </row>
     <row r="114">
@@ -5509,10 +5509,10 @@
         <v>9</v>
       </c>
       <c r="F114" t="n">
-        <v>5.80110497237569</v>
+        <v>5.77875619152449</v>
       </c>
       <c r="G114" t="n">
-        <v>1.25823160497081</v>
+        <v>1.23588282411961</v>
       </c>
     </row>
     <row r="115">
@@ -5532,10 +5532,10 @@
         <v>9</v>
       </c>
       <c r="F115" t="n">
-        <v>5.08664058133035</v>
+        <v>5.08948545861297</v>
       </c>
       <c r="G115" t="n">
-        <v>1.80218310332449</v>
+        <v>1.80502798060711</v>
       </c>
     </row>
     <row r="116">
@@ -5555,10 +5555,10 @@
         <v>9</v>
       </c>
       <c r="F116" t="n">
-        <v>4.61912479740681</v>
+        <v>4.61165048543689</v>
       </c>
       <c r="G116" t="n">
-        <v>0.807283759288397</v>
+        <v>0.799809447318483</v>
       </c>
     </row>
     <row r="117">
@@ -5578,10 +5578,10 @@
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>8.22147651006711</v>
+        <v>8.16213214880622</v>
       </c>
       <c r="G117" t="n">
-        <v>1.24335705412389</v>
+        <v>1.18401269286299</v>
       </c>
     </row>
     <row r="118">
@@ -5601,10 +5601,10 @@
         <v>9</v>
       </c>
       <c r="F118" t="n">
-        <v>4.20609884332282</v>
+        <v>4.18191322530057</v>
       </c>
       <c r="G118" t="n">
-        <v>1.61408225441665</v>
+        <v>1.58989663639441</v>
       </c>
     </row>
     <row r="119">
@@ -5624,10 +5624,10 @@
         <v>9</v>
       </c>
       <c r="F119" t="n">
-        <v>6.93739424703892</v>
+        <v>6.91866351670604</v>
       </c>
       <c r="G119" t="n">
-        <v>2.41107845756523</v>
+        <v>2.39234772723236</v>
       </c>
     </row>
     <row r="120">
@@ -5647,10 +5647,10 @@
         <v>9</v>
       </c>
       <c r="F120" t="n">
-        <v>7.36224028906956</v>
+        <v>7.36556710347944</v>
       </c>
       <c r="G120" t="n">
-        <v>0.853926749877158</v>
+        <v>0.857253564287041</v>
       </c>
     </row>
     <row r="121">
@@ -5670,10 +5670,10 @@
         <v>9</v>
       </c>
       <c r="F121" t="n">
-        <v>5.98758671047828</v>
+        <v>6.00073179656056</v>
       </c>
       <c r="G121" t="n">
-        <v>2.62782831108228</v>
+        <v>2.64097339716456</v>
       </c>
     </row>
     <row r="122">
@@ -5693,10 +5693,10 @@
         <v>9</v>
       </c>
       <c r="F122" t="n">
-        <v>3.95984383714445</v>
+        <v>3.92482034273079</v>
       </c>
       <c r="G122" t="n">
-        <v>0.322430442225282</v>
+        <v>0.287406947811622</v>
       </c>
     </row>
     <row r="123">
@@ -5716,10 +5716,10 @@
         <v>9</v>
       </c>
       <c r="F123" t="n">
-        <v>3.23080899457224</v>
+        <v>3.21998969603297</v>
       </c>
       <c r="G123" t="n">
-        <v>0.368265111234407</v>
+        <v>0.357445812695138</v>
       </c>
     </row>
     <row r="124">
@@ -5739,10 +5739,10 @@
         <v>9</v>
       </c>
       <c r="F124" t="n">
-        <v>2.82258064516129</v>
+        <v>2.80943971745063</v>
       </c>
       <c r="G124" t="n">
-        <v>0.720478543059188</v>
+        <v>0.707337615348532</v>
       </c>
     </row>
     <row r="125">
@@ -5762,10 +5762,10 @@
         <v>9</v>
       </c>
       <c r="F125" t="n">
-        <v>4.17857142857143</v>
+        <v>4.14746543778802</v>
       </c>
       <c r="G125" t="n">
-        <v>0.891190728677473</v>
+        <v>0.860084737894063</v>
       </c>
     </row>
     <row r="126">
@@ -5785,10 +5785,10 @@
         <v>9</v>
       </c>
       <c r="F126" t="n">
-        <v>3.28507795100223</v>
+        <v>3.26688815060908</v>
       </c>
       <c r="G126" t="n">
-        <v>1.35849633163227</v>
+        <v>1.34030653123912</v>
       </c>
     </row>
     <row r="127">
@@ -5808,10 +5808,10 @@
         <v>9</v>
       </c>
       <c r="F127" t="n">
-        <v>6.74270379067427</v>
+        <v>6.7145481877401</v>
       </c>
       <c r="G127" t="n">
-        <v>2.64420488698056</v>
+        <v>2.61604928404639</v>
       </c>
     </row>
     <row r="128">
@@ -5831,10 +5831,10 @@
         <v>9</v>
       </c>
       <c r="F128" t="n">
-        <v>4.07566302652106</v>
+        <v>4.06298600311042</v>
       </c>
       <c r="G128" t="n">
-        <v>1.22743828988431</v>
+        <v>1.21476126647367</v>
       </c>
     </row>
     <row r="129">
@@ -5854,10 +5854,10 @@
         <v>9</v>
       </c>
       <c r="F129" t="n">
-        <v>3.94846217788861</v>
+        <v>3.95174708818636</v>
       </c>
       <c r="G129" t="n">
-        <v>2.06404006733585</v>
+        <v>2.06732497763359</v>
       </c>
     </row>
     <row r="130">
@@ -5877,10 +5877,10 @@
         <v>9</v>
       </c>
       <c r="F130" t="n">
-        <v>3.28542094455852</v>
+        <v>3.27533265097236</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.278768244630667</v>
+        <v>-0.288856538216824</v>
       </c>
     </row>
     <row r="131">
@@ -5900,10 +5900,10 @@
         <v>9</v>
       </c>
       <c r="F131" t="n">
-        <v>3.78349973725696</v>
+        <v>3.76667538582265</v>
       </c>
       <c r="G131" t="n">
-        <v>1.38328398752665</v>
+        <v>1.36645963609234</v>
       </c>
     </row>
     <row r="132">
@@ -5923,10 +5923,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>5.20565552699229</v>
+        <v>5.18234165067179</v>
       </c>
       <c r="G132" t="n">
-        <v>1.97045656225596</v>
+        <v>1.94714268593545</v>
       </c>
     </row>
     <row r="133">
@@ -5946,10 +5946,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>3.15126050420168</v>
+        <v>3.14795383001049</v>
       </c>
       <c r="G133" t="n">
-        <v>1.48817037544632</v>
+        <v>1.48486370125513</v>
       </c>
     </row>
     <row r="134">
@@ -5969,10 +5969,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>4.99795165915608</v>
+        <v>4.96540496540497</v>
       </c>
       <c r="G134" t="n">
-        <v>2.77477936330316</v>
+        <v>2.74223266955204</v>
       </c>
     </row>
     <row r="135">
@@ -5992,10 +5992,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>3.92456676860347</v>
+        <v>3.92656807751147</v>
       </c>
       <c r="G135" t="n">
-        <v>0.891147745467219</v>
+        <v>0.893149054375227</v>
       </c>
     </row>
     <row r="136">
@@ -6015,10 +6015,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>3.67523420610137</v>
+        <v>3.66203925323121</v>
       </c>
       <c r="G136" t="n">
-        <v>1.16100270705014</v>
+        <v>1.14780775417998</v>
       </c>
     </row>
     <row r="137">
@@ -6038,10 +6038,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>5.00561167227834</v>
+        <v>4.98101407192316</v>
       </c>
       <c r="G137" t="n">
-        <v>3.09464044925676</v>
+        <v>3.07004284890158</v>
       </c>
     </row>
     <row r="138">
@@ -6061,10 +6061,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>3.5031847133758</v>
+        <v>3.49761526232114</v>
       </c>
       <c r="G138" t="n">
-        <v>2.10303732944065</v>
+        <v>2.09746787838599</v>
       </c>
     </row>
     <row r="139">
@@ -6084,10 +6084,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>3.71886728079154</v>
+        <v>3.72267759562842</v>
       </c>
       <c r="G139" t="n">
-        <v>0.243833542599906</v>
+        <v>0.247643857436782</v>
       </c>
     </row>
     <row r="140">
@@ -6107,10 +6107,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>2.96841605319402</v>
+        <v>2.97512793050101</v>
       </c>
       <c r="G140" t="n">
-        <v>0.915698535116106</v>
+        <v>0.922410412423102</v>
       </c>
     </row>
     <row r="141">
@@ -6130,10 +6130,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>1.79114378904306</v>
+        <v>1.78842491651257</v>
       </c>
       <c r="G141" t="n">
-        <v>0.456289845392045</v>
+        <v>0.453570972861551</v>
       </c>
     </row>
     <row r="142">
@@ -6153,10 +6153,10 @@
         <v>9</v>
       </c>
       <c r="F142" t="n">
-        <v>3.9087093389297</v>
+        <v>3.90358920618287</v>
       </c>
       <c r="G142" t="n">
-        <v>0.577978139346037</v>
+        <v>0.572858006599207</v>
       </c>
     </row>
     <row r="143">
@@ -6176,10 +6176,10 @@
         <v>9</v>
       </c>
       <c r="F143" t="n">
-        <v>4.17596848325673</v>
+        <v>4.20356906807667</v>
       </c>
       <c r="G143" t="n">
-        <v>2.62643887617317</v>
+        <v>2.6540394609931</v>
       </c>
     </row>
     <row r="144">
@@ -6199,10 +6199,10 @@
         <v>9</v>
       </c>
       <c r="F144" t="n">
-        <v>4.87144790257104</v>
+        <v>4.89462950373895</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.317892910893193</v>
+        <v>-0.294711309725283</v>
       </c>
     </row>
     <row r="145">
@@ -6222,10 +6222,10 @@
         <v>9</v>
       </c>
       <c r="F145" t="n">
-        <v>2.97146958550153</v>
+        <v>2.97104309447773</v>
       </c>
       <c r="G145" t="n">
-        <v>0.515511036278728</v>
+        <v>0.515084545254937</v>
       </c>
     </row>
     <row r="146">
@@ -6245,10 +6245,10 @@
         <v>9</v>
       </c>
       <c r="F146" t="n">
-        <v>4.61203483768804</v>
+        <v>4.60565329116426</v>
       </c>
       <c r="G146" t="n">
-        <v>1.55081034789213</v>
+        <v>1.54442880136834</v>
       </c>
     </row>
     <row r="147">
@@ -6268,10 +6268,10 @@
         <v>9</v>
       </c>
       <c r="F147" t="n">
-        <v>3.37287741335194</v>
+        <v>3.37837837837838</v>
       </c>
       <c r="G147" t="n">
-        <v>0.999718657214463</v>
+        <v>1.0052196222409</v>
       </c>
     </row>
     <row r="148">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="F148" t="n">
-        <v>4.41436138905238</v>
+        <v>4.40140845070423</v>
       </c>
       <c r="G148" t="n">
-        <v>2.63605670618339</v>
+        <v>2.62310376783523</v>
       </c>
     </row>
     <row r="149">
@@ -6314,10 +6314,10 @@
         <v>9</v>
       </c>
       <c r="F149" t="n">
-        <v>4.1746641074856</v>
+        <v>4.15076335877863</v>
       </c>
       <c r="G149" t="n">
-        <v>1.25531724949451</v>
+        <v>1.23141650078753</v>
       </c>
     </row>
     <row r="150">
@@ -6337,10 +6337,10 @@
         <v>9</v>
       </c>
       <c r="F150" t="n">
-        <v>6.37987604812249</v>
+        <v>6.35901162790698</v>
       </c>
       <c r="G150" t="n">
-        <v>1.41425343544106</v>
+        <v>1.39338901522554</v>
       </c>
     </row>
     <row r="151">
@@ -6360,10 +6360,10 @@
         <v>9</v>
       </c>
       <c r="F151" t="n">
-        <v>3.73387644263408</v>
+        <v>3.72881355932203</v>
       </c>
       <c r="G151" t="n">
-        <v>0.139524709643066</v>
+        <v>0.13446182633102</v>
       </c>
     </row>
     <row r="152">
@@ -6386,7 +6386,7 @@
         <v>3.82046901692809</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0182471424170632</v>
+        <v>0.0182471424170636</v>
       </c>
     </row>
     <row r="153">
@@ -6406,10 +6406,10 @@
         <v>9</v>
       </c>
       <c r="F153" t="n">
-        <v>3.89269866881807</v>
+        <v>3.88642770841724</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.0208765452055726</v>
+        <v>-0.0271475056064068</v>
       </c>
     </row>
     <row r="154">
@@ -6429,10 +6429,10 @@
         <v>9</v>
       </c>
       <c r="F154" t="n">
-        <v>3.904326415758</v>
+        <v>3.90021082220661</v>
       </c>
       <c r="G154" t="n">
-        <v>0.128102639534226</v>
+        <v>0.12398704598283</v>
       </c>
     </row>
     <row r="155">
@@ -6452,10 +6452,10 @@
         <v>9</v>
       </c>
       <c r="F155" t="n">
-        <v>2.80122793553338</v>
+        <v>2.79800689919509</v>
       </c>
       <c r="G155" t="n">
-        <v>0.00982846363598711</v>
+        <v>0.00660742729769659</v>
       </c>
     </row>
     <row r="156">
@@ -6475,10 +6475,10 @@
         <v>9</v>
       </c>
       <c r="F156" t="n">
-        <v>3.07291666666667</v>
+        <v>3.06573135879449</v>
       </c>
       <c r="G156" t="n">
-        <v>-0.423965957350682</v>
+        <v>-0.431151265222856</v>
       </c>
     </row>
     <row r="157">
@@ -6498,10 +6498,10 @@
         <v>9</v>
       </c>
       <c r="F157" t="n">
-        <v>4.94686698424331</v>
+        <v>4.92341356673961</v>
       </c>
       <c r="G157" t="n">
-        <v>1.23237317506633</v>
+        <v>1.20891975756262</v>
       </c>
     </row>
     <row r="158">
@@ -6521,10 +6521,10 @@
         <v>9</v>
       </c>
       <c r="F158" t="n">
-        <v>3.98063474986552</v>
+        <v>3.98277717976319</v>
       </c>
       <c r="G158" t="n">
-        <v>0.289901991244829</v>
+        <v>0.292044421142497</v>
       </c>
     </row>
     <row r="159">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="F159" t="n">
-        <v>3.48556309674451</v>
+        <v>3.48716768327771</v>
       </c>
       <c r="G159" t="n">
-        <v>0.810804724076492</v>
+        <v>0.812409310609692</v>
       </c>
     </row>
     <row r="160">
@@ -6567,10 +6567,10 @@
         <v>9</v>
       </c>
       <c r="F160" t="n">
-        <v>3.56159669649002</v>
+        <v>3.56773526370217</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.305431797404145</v>
+        <v>-0.299293230191994</v>
       </c>
     </row>
     <row r="161">
@@ -6590,10 +6590,10 @@
         <v>9</v>
       </c>
       <c r="F161" t="n">
-        <v>3.04755525787006</v>
+        <v>3.03434478159386</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.280099483754017</v>
+        <v>-0.293309960030213</v>
       </c>
     </row>
     <row r="162">
@@ -6613,10 +6613,10 @@
         <v>9</v>
       </c>
       <c r="F162" t="n">
-        <v>6.73316708229426</v>
+        <v>6.71224362958359</v>
       </c>
       <c r="G162" t="n">
-        <v>2.48332806104507</v>
+        <v>2.4624046083344</v>
       </c>
     </row>
     <row r="163">
@@ -6636,10 +6636,10 @@
         <v>9</v>
       </c>
       <c r="F163" t="n">
-        <v>3.63859362224039</v>
+        <v>3.64455364455364</v>
       </c>
       <c r="G163" t="n">
-        <v>0.828887364258272</v>
+        <v>0.834847386571524</v>
       </c>
     </row>
     <row r="164">
@@ -6659,10 +6659,10 @@
         <v>9</v>
       </c>
       <c r="F164" t="n">
-        <v>4.6195652173913</v>
+        <v>4.61705594785443</v>
       </c>
       <c r="G164" t="n">
-        <v>-0.432099535765986</v>
+        <v>-0.434608805302863</v>
       </c>
     </row>
     <row r="165">
@@ -6682,10 +6682,10 @@
         <v>9</v>
       </c>
       <c r="F165" t="n">
-        <v>3.7483843171047</v>
+        <v>3.72910415773682</v>
       </c>
       <c r="G165" t="n">
-        <v>-0.815374072157048</v>
+        <v>-0.834654231524925</v>
       </c>
     </row>
     <row r="166">
@@ -6705,10 +6705,10 @@
         <v>9</v>
       </c>
       <c r="F166" t="n">
-        <v>3.51758793969849</v>
+        <v>3.48525469168901</v>
       </c>
       <c r="G166" t="n">
-        <v>0.240888910572279</v>
+        <v>0.208555662562795</v>
       </c>
     </row>
     <row r="167">
@@ -6728,10 +6728,10 @@
         <v>9</v>
       </c>
       <c r="F167" t="n">
-        <v>2.77369195209078</v>
+        <v>2.75833246264758</v>
       </c>
       <c r="G167" t="n">
-        <v>0.903395360678646</v>
+        <v>0.888035871235452</v>
       </c>
     </row>
     <row r="168">
@@ -6751,10 +6751,10 @@
         <v>9</v>
       </c>
       <c r="F168" t="n">
-        <v>4.21174652241113</v>
+        <v>4.19715055833654</v>
       </c>
       <c r="G168" t="n">
-        <v>1.79043901635786</v>
+        <v>1.77584305228327</v>
       </c>
     </row>
     <row r="169">
@@ -6774,10 +6774,10 @@
         <v>9</v>
       </c>
       <c r="F169" t="n">
-        <v>4</v>
+        <v>3.98200224971878</v>
       </c>
       <c r="G169" t="n">
-        <v>0.597490347490347</v>
+        <v>0.579492597209132</v>
       </c>
     </row>
     <row r="170">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="F170" t="n">
-        <v>3.42143003482893</v>
+        <v>3.41373671300082</v>
       </c>
       <c r="G170" t="n">
-        <v>0.3891000459772</v>
+        <v>0.38140672414909</v>
       </c>
     </row>
     <row r="171">
@@ -6820,10 +6820,10 @@
         <v>9</v>
       </c>
       <c r="F171" t="n">
-        <v>3.41685649202733</v>
+        <v>3.40618790803293</v>
       </c>
       <c r="G171" t="n">
-        <v>0.631749485284444</v>
+        <v>0.621080901290037</v>
       </c>
     </row>
     <row r="172">
@@ -6843,10 +6843,10 @@
         <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>3.88623268358465</v>
+        <v>3.86585365853659</v>
       </c>
       <c r="G172" t="n">
-        <v>1.46399912927563</v>
+        <v>1.44362010422756</v>
       </c>
     </row>
     <row r="173">
@@ -6866,10 +6866,10 @@
         <v>9</v>
       </c>
       <c r="F173" t="n">
-        <v>3.43923665722974</v>
+        <v>3.42522974101921</v>
       </c>
       <c r="G173" t="n">
-        <v>0.286872384024834</v>
+        <v>0.272865467814311</v>
       </c>
     </row>
     <row r="174">
@@ -6889,10 +6889,10 @@
         <v>9</v>
       </c>
       <c r="F174" t="n">
-        <v>2.75699094131548</v>
+        <v>2.74294670846395</v>
       </c>
       <c r="G174" t="n">
-        <v>0.427540026174047</v>
+        <v>0.413495793322519</v>
       </c>
     </row>
     <row r="175">
@@ -6912,10 +6912,10 @@
         <v>9</v>
       </c>
       <c r="F175" t="n">
-        <v>3.67435158501441</v>
+        <v>3.63506771204562</v>
       </c>
       <c r="G175" t="n">
-        <v>1.22973737569432</v>
+        <v>1.19045350272552</v>
       </c>
     </row>
     <row r="176">
@@ -6935,10 +6935,10 @@
         <v>9</v>
       </c>
       <c r="F176" t="n">
-        <v>3.80727762803234</v>
+        <v>3.79194630872483</v>
       </c>
       <c r="G176" t="n">
-        <v>0.986403156946308</v>
+        <v>0.971071837638795</v>
       </c>
     </row>
     <row r="177">
@@ -6958,10 +6958,10 @@
         <v>9</v>
       </c>
       <c r="F177" t="n">
-        <v>4.54238432961837</v>
+        <v>4.52938205085031</v>
       </c>
       <c r="G177" t="n">
-        <v>0.201548316756635</v>
+        <v>0.188546037988574</v>
       </c>
     </row>
     <row r="178">
@@ -6981,10 +6981,10 @@
         <v>9</v>
       </c>
       <c r="F178" t="n">
-        <v>3.67487328023172</v>
+        <v>3.66757000903342</v>
       </c>
       <c r="G178" t="n">
-        <v>1.0949314197666</v>
+        <v>1.08762814856831</v>
       </c>
     </row>
     <row r="179">
@@ -7004,10 +7004,10 @@
         <v>9</v>
       </c>
       <c r="F179" t="n">
-        <v>3.62989323843416</v>
+        <v>3.62731152204836</v>
       </c>
       <c r="G179" t="n">
-        <v>0.616500381291306</v>
+        <v>0.613918664905507</v>
       </c>
     </row>
     <row r="180">
@@ -7027,10 +7027,10 @@
         <v>9</v>
       </c>
       <c r="F180" t="n">
-        <v>5.86124401913876</v>
+        <v>5.84924965893588</v>
       </c>
       <c r="G180" t="n">
-        <v>1.03250550618972</v>
+        <v>1.02051114598684</v>
       </c>
     </row>
     <row r="181">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="F181" t="n">
-        <v>3.23172129268852</v>
+        <v>3.2118451025057</v>
       </c>
       <c r="G181" t="n">
-        <v>-0.036549247483975</v>
+        <v>-0.0564254376667974</v>
       </c>
     </row>
     <row r="182">
@@ -7073,10 +7073,10 @@
         <v>9</v>
       </c>
       <c r="F182" t="n">
-        <v>3.34624867911236</v>
+        <v>3.32749562171629</v>
       </c>
       <c r="G182" t="n">
-        <v>0.172844825693399</v>
+        <v>0.154091768297322</v>
       </c>
     </row>
     <row r="183">
@@ -7096,10 +7096,10 @@
         <v>9</v>
       </c>
       <c r="F183" t="n">
-        <v>6.42526545058535</v>
+        <v>6.4026044492675</v>
       </c>
       <c r="G183" t="n">
-        <v>1.78085325900335</v>
+        <v>1.7581922576855</v>
       </c>
     </row>
     <row r="184">
@@ -7119,10 +7119,10 @@
         <v>9</v>
       </c>
       <c r="F184" t="n">
-        <v>4.68559218559219</v>
+        <v>4.67062224250723</v>
       </c>
       <c r="G184" t="n">
-        <v>0.687534561765705</v>
+        <v>0.672564618680746</v>
       </c>
     </row>
     <row r="185">
@@ -7142,10 +7142,10 @@
         <v>9</v>
       </c>
       <c r="F185" t="n">
-        <v>3.17025261523</v>
+        <v>3.16764799853941</v>
       </c>
       <c r="G185" t="n">
-        <v>0.330087913751433</v>
+        <v>0.327483297060843</v>
       </c>
     </row>
     <row r="186">
@@ -7165,10 +7165,10 @@
         <v>9</v>
       </c>
       <c r="F186" t="n">
-        <v>5.60420315236427</v>
+        <v>5.59734126290012</v>
       </c>
       <c r="G186" t="n">
-        <v>1.42898070198782</v>
+        <v>1.42211881252367</v>
       </c>
     </row>
     <row r="187">
@@ -7188,10 +7188,10 @@
         <v>9</v>
       </c>
       <c r="F187" t="n">
-        <v>2.91747559905322</v>
+        <v>2.91120428851972</v>
       </c>
       <c r="G187" t="n">
-        <v>0.376645406503926</v>
+        <v>0.370374095970427</v>
       </c>
     </row>
     <row r="188">
@@ -7211,10 +7211,10 @@
         <v>9</v>
       </c>
       <c r="F188" t="n">
-        <v>3.32129963898917</v>
+        <v>3.31491712707182</v>
       </c>
       <c r="G188" t="n">
-        <v>0.88751295323398</v>
+        <v>0.881130441316633</v>
       </c>
     </row>
     <row r="189">
@@ -7234,10 +7234,10 @@
         <v>9</v>
       </c>
       <c r="F189" t="n">
-        <v>3.72896771259663</v>
+        <v>3.71629277135735</v>
       </c>
       <c r="G189" t="n">
-        <v>1.02188765706679</v>
+        <v>1.00921271582751</v>
       </c>
     </row>
     <row r="190">
@@ -7257,10 +7257,10 @@
         <v>9</v>
       </c>
       <c r="F190" t="n">
-        <v>4.36558231235037</v>
+        <v>4.36251055446102</v>
       </c>
       <c r="G190" t="n">
-        <v>1.43821418199964</v>
+        <v>1.43514242411029</v>
       </c>
     </row>
     <row r="191">
@@ -7280,10 +7280,10 @@
         <v>9</v>
       </c>
       <c r="F191" t="n">
-        <v>5.38820534577853</v>
+        <v>5.40655598126863</v>
       </c>
       <c r="G191" t="n">
-        <v>-1.19615679413916</v>
+        <v>-1.17780615864907</v>
       </c>
     </row>
     <row r="192">
@@ -7303,10 +7303,10 @@
         <v>9</v>
       </c>
       <c r="F192" t="n">
-        <v>5.25204167840045</v>
+        <v>5.235822571589</v>
       </c>
       <c r="G192" t="n">
-        <v>0.445818591860653</v>
+        <v>0.429599485049199</v>
       </c>
     </row>
     <row r="193">
@@ -7326,10 +7326,10 @@
         <v>9</v>
       </c>
       <c r="F193" t="n">
-        <v>5.5086979441223</v>
+        <v>5.50434553594943</v>
       </c>
       <c r="G193" t="n">
-        <v>1.00114192536253</v>
+        <v>0.996789517189663</v>
       </c>
     </row>
     <row r="194">
@@ -7349,10 +7349,10 @@
         <v>9</v>
       </c>
       <c r="F194" t="n">
-        <v>5.20491803278689</v>
+        <v>5.19639934533552</v>
       </c>
       <c r="G194" t="n">
-        <v>-0.136992189559639</v>
+        <v>-0.14551087701101</v>
       </c>
     </row>
     <row r="195">
@@ -7372,10 +7372,10 @@
         <v>9</v>
       </c>
       <c r="F195" t="n">
-        <v>4.79127815234543</v>
+        <v>4.75309520421232</v>
       </c>
       <c r="G195" t="n">
-        <v>-0.425718672091285</v>
+        <v>-0.463901620224392</v>
       </c>
     </row>
     <row r="196">
@@ -7395,10 +7395,10 @@
         <v>9</v>
       </c>
       <c r="F196" t="n">
-        <v>4.65528350515464</v>
+        <v>4.63735558408216</v>
       </c>
       <c r="G196" t="n">
-        <v>1.63017825020376</v>
+        <v>1.61225032913128</v>
       </c>
     </row>
     <row r="197">
@@ -7418,10 +7418,10 @@
         <v>9</v>
       </c>
       <c r="F197" t="n">
-        <v>4.57984866587017</v>
+        <v>4.56107879428874</v>
       </c>
       <c r="G197" t="n">
-        <v>0.429308161399332</v>
+        <v>0.410538289817897</v>
       </c>
     </row>
     <row r="198">
@@ -7441,10 +7441,10 @@
         <v>9</v>
       </c>
       <c r="F198" t="n">
-        <v>4.32708127673577</v>
+        <v>4.31784600229847</v>
       </c>
       <c r="G198" t="n">
-        <v>0.786274671464254</v>
+        <v>0.777039397026959</v>
       </c>
     </row>
     <row r="199">
@@ -7464,10 +7464,10 @@
         <v>9</v>
       </c>
       <c r="F199" t="n">
-        <v>3.86958483754513</v>
+        <v>3.86783942264321</v>
       </c>
       <c r="G199" t="n">
-        <v>0.281441311804097</v>
+        <v>0.279695896902182</v>
       </c>
     </row>
     <row r="200">
@@ -7487,10 +7487,10 @@
         <v>9</v>
       </c>
       <c r="F200" t="n">
-        <v>6.070826306914</v>
+        <v>6.06514414077125</v>
       </c>
       <c r="G200" t="n">
-        <v>1.0492786209481</v>
+        <v>1.04359645480535</v>
       </c>
     </row>
     <row r="201">
@@ -7510,10 +7510,10 @@
         <v>9</v>
       </c>
       <c r="F201" t="n">
-        <v>5.34960112623182</v>
+        <v>5.33083937339257</v>
       </c>
       <c r="G201" t="n">
-        <v>1.09145076029702</v>
+        <v>1.07268900745777</v>
       </c>
     </row>
     <row r="202">
@@ -7533,10 +7533,10 @@
         <v>9</v>
       </c>
       <c r="F202" t="n">
-        <v>7.22233461460651</v>
+        <v>7.20048406615571</v>
       </c>
       <c r="G202" t="n">
-        <v>-0.232469366705694</v>
+        <v>-0.254319915156501</v>
       </c>
     </row>
     <row r="203">
@@ -7556,10 +7556,10 @@
         <v>9</v>
       </c>
       <c r="F203" t="n">
-        <v>6.69745958429561</v>
+        <v>6.66010498687664</v>
       </c>
       <c r="G203" t="n">
-        <v>-1.54185665502063</v>
+        <v>-1.5792112524396</v>
       </c>
     </row>
     <row r="204">
@@ -7579,10 +7579,10 @@
         <v>9</v>
       </c>
       <c r="F204" t="n">
-        <v>4.46131309095752</v>
+        <v>4.4607190412783</v>
       </c>
       <c r="G204" t="n">
-        <v>1.36327387527124</v>
+        <v>1.36267982559202</v>
       </c>
     </row>
     <row r="205">
@@ -7602,10 +7602,10 @@
         <v>9</v>
       </c>
       <c r="F205" t="n">
-        <v>3.88265746333046</v>
+        <v>3.87263339070568</v>
       </c>
       <c r="G205" t="n">
-        <v>0.405836271277477</v>
+        <v>0.3958121986527</v>
       </c>
     </row>
     <row r="206">
@@ -7625,10 +7625,10 @@
         <v>9</v>
       </c>
       <c r="F206" t="n">
-        <v>7.31538992408558</v>
+        <v>7.29023383768913</v>
       </c>
       <c r="G206" t="n">
-        <v>2.71374157243722</v>
+        <v>2.68858548604078</v>
       </c>
     </row>
     <row r="207">
@@ -7648,10 +7648,10 @@
         <v>9</v>
       </c>
       <c r="F207" t="n">
-        <v>8.07770961145194</v>
+        <v>8.03662258392675</v>
       </c>
       <c r="G207" t="n">
-        <v>-1.24983919548949</v>
+        <v>-1.29092622301468</v>
       </c>
     </row>
     <row r="208">
@@ -7671,10 +7671,10 @@
         <v>9</v>
       </c>
       <c r="F208" t="n">
-        <v>4.89655172413793</v>
+        <v>4.85304169514696</v>
       </c>
       <c r="G208" t="n">
-        <v>1.71442579319683</v>
+        <v>1.67091576420586</v>
       </c>
     </row>
     <row r="209">
@@ -7694,10 +7694,10 @@
         <v>9</v>
       </c>
       <c r="F209" t="n">
-        <v>14.2225497420781</v>
+        <v>14.1599413059428</v>
       </c>
       <c r="G209" t="n">
-        <v>6.28383107912547</v>
+        <v>6.22122264299013</v>
       </c>
     </row>
     <row r="210">
@@ -7717,10 +7717,10 @@
         <v>9</v>
       </c>
       <c r="F210" t="n">
-        <v>4.11873840445269</v>
+        <v>4.15263748597082</v>
       </c>
       <c r="G210" t="n">
-        <v>0.14956692083034</v>
+        <v>0.183466002348468</v>
       </c>
     </row>
     <row r="211">
@@ -7740,10 +7740,10 @@
         <v>9</v>
       </c>
       <c r="F211" t="n">
-        <v>4.36598329536826</v>
+        <v>4.39770554493308</v>
       </c>
       <c r="G211" t="n">
-        <v>0.97046090730856</v>
+        <v>1.00218315687338</v>
       </c>
     </row>
     <row r="212">
@@ -7763,10 +7763,10 @@
         <v>9</v>
       </c>
       <c r="F212" t="n">
-        <v>4.88188976377953</v>
+        <v>4.86783564511908</v>
       </c>
       <c r="G212" t="n">
-        <v>1.38124626313603</v>
+        <v>1.36719214447558</v>
       </c>
     </row>
     <row r="213">
@@ -7786,10 +7786,10 @@
         <v>9</v>
       </c>
       <c r="F213" t="n">
-        <v>3.05555555555556</v>
+        <v>3.05216426193119</v>
       </c>
       <c r="G213" t="n">
-        <v>0.898475909537856</v>
+        <v>0.895084615913488</v>
       </c>
     </row>
     <row r="214">
@@ -7809,10 +7809,10 @@
         <v>9</v>
       </c>
       <c r="F214" t="n">
-        <v>2.90771175726928</v>
+        <v>2.89992119779354</v>
       </c>
       <c r="G214" t="n">
-        <v>0.194652284553154</v>
+        <v>0.186861725077413</v>
       </c>
     </row>
     <row r="215">
@@ -7832,10 +7832,10 @@
         <v>9</v>
       </c>
       <c r="F215" t="n">
-        <v>3.75838926174497</v>
+        <v>3.80176510522743</v>
       </c>
       <c r="G215" t="n">
-        <v>0.545812364957543</v>
+        <v>0.589188208440004</v>
       </c>
     </row>
     <row r="216">
@@ -7855,10 +7855,10 @@
         <v>9</v>
       </c>
       <c r="F216" t="n">
-        <v>6.40776699029126</v>
+        <v>6.38792102206736</v>
       </c>
       <c r="G216" t="n">
-        <v>1.27807283620686</v>
+        <v>1.25822686798297</v>
       </c>
     </row>
     <row r="217">
@@ -7878,10 +7878,10 @@
         <v>9</v>
       </c>
       <c r="F217" t="n">
-        <v>4.7875927174646</v>
+        <v>4.79082321187584</v>
       </c>
       <c r="G217" t="n">
-        <v>2.25018217745159</v>
+        <v>2.25341267186283</v>
       </c>
     </row>
     <row r="218">
@@ -7901,10 +7901,10 @@
         <v>9</v>
       </c>
       <c r="F218" t="n">
-        <v>2.9602595296026</v>
+        <v>2.96747967479675</v>
       </c>
       <c r="G218" t="n">
-        <v>0.702318465691382</v>
+        <v>0.709538610885535</v>
       </c>
     </row>
     <row r="219">
@@ -7924,10 +7924,10 @@
         <v>9</v>
       </c>
       <c r="F219" t="n">
-        <v>4.59901178259217</v>
+        <v>4.60251046025105</v>
       </c>
       <c r="G219" t="n">
-        <v>0.647929938753977</v>
+        <v>0.651428616412852</v>
       </c>
     </row>
     <row r="220">
@@ -7947,10 +7947,10 @@
         <v>9</v>
       </c>
       <c r="F220" t="n">
-        <v>3.94574599260173</v>
+        <v>3.97022332506203</v>
       </c>
       <c r="G220" t="n">
-        <v>0.0822559732842758</v>
+        <v>0.106733305744584</v>
       </c>
     </row>
     <row r="221">
@@ -7970,10 +7970,10 @@
         <v>9</v>
       </c>
       <c r="F221" t="n">
-        <v>5.74001125492403</v>
+        <v>5.73033707865168</v>
       </c>
       <c r="G221" t="n">
-        <v>1.06768115783665</v>
+        <v>1.05800698156431</v>
       </c>
     </row>
     <row r="222">
@@ -7993,10 +7993,10 @@
         <v>9</v>
       </c>
       <c r="F222" t="n">
-        <v>4.61828463713478</v>
+        <v>4.60742830277386</v>
       </c>
       <c r="G222" t="n">
-        <v>-1.06250887052978</v>
+        <v>-1.0733652048907</v>
       </c>
     </row>
     <row r="223">
@@ -8016,10 +8016,10 @@
         <v>9</v>
       </c>
       <c r="F223" t="n">
-        <v>4.84776825302986</v>
+        <v>4.82352941176471</v>
       </c>
       <c r="G223" t="n">
-        <v>-1.07059909390892</v>
+        <v>-1.09483793517407</v>
       </c>
     </row>
     <row r="224">
@@ -8039,10 +8039,10 @@
         <v>9</v>
       </c>
       <c r="F224" t="n">
-        <v>3.30891042306783</v>
+        <v>3.30656589513462</v>
       </c>
       <c r="G224" t="n">
-        <v>-0.211522861028671</v>
+        <v>-0.21386738896188</v>
       </c>
     </row>
     <row r="225">
@@ -8062,10 +8062,10 @@
         <v>9</v>
       </c>
       <c r="F225" t="n">
-        <v>3.97680198840099</v>
+        <v>3.97350993377483</v>
       </c>
       <c r="G225" t="n">
-        <v>1.09910414667438</v>
+        <v>1.09581209204822</v>
       </c>
     </row>
     <row r="226">
@@ -8085,10 +8085,10 @@
         <v>9</v>
       </c>
       <c r="F226" t="n">
-        <v>2.83122594832325</v>
+        <v>2.83981251723187</v>
       </c>
       <c r="G226" t="n">
-        <v>-0.843666755539406</v>
+        <v>-0.835080186630789</v>
       </c>
     </row>
     <row r="227">
@@ -8108,10 +8108,10 @@
         <v>9</v>
       </c>
       <c r="F227" t="n">
-        <v>2.94334069168506</v>
+        <v>2.94171722743151</v>
       </c>
       <c r="G227" t="n">
-        <v>-1.1128215548048</v>
+        <v>-1.11444501905835</v>
       </c>
     </row>
     <row r="228">
@@ -8131,10 +8131,10 @@
         <v>9</v>
       </c>
       <c r="F228" t="n">
-        <v>4.29842832796819</v>
+        <v>4.29192664019663</v>
       </c>
       <c r="G228" t="n">
-        <v>-1.04580902463737</v>
+        <v>-1.05231071240892</v>
       </c>
     </row>
     <row r="229">
@@ -8154,10 +8154,10 @@
         <v>9</v>
       </c>
       <c r="F229" t="n">
-        <v>2.80649926144756</v>
+        <v>2.80104536621323</v>
       </c>
       <c r="G229" t="n">
-        <v>-0.351827235681231</v>
+        <v>-0.357281130915566</v>
       </c>
     </row>
     <row r="230">
@@ -8177,10 +8177,10 @@
         <v>9</v>
       </c>
       <c r="F230" t="n">
-        <v>2.68741159830269</v>
+        <v>2.68077601410935</v>
       </c>
       <c r="G230" t="n">
-        <v>-0.441080021809045</v>
+        <v>-0.447715606002385</v>
       </c>
     </row>
     <row r="231">
@@ -8200,10 +8200,10 @@
         <v>9</v>
       </c>
       <c r="F231" t="n">
-        <v>5.53892215568862</v>
+        <v>5.44518027961737</v>
       </c>
       <c r="G231" t="n">
-        <v>1.5184255061025</v>
+        <v>1.42468363003124</v>
       </c>
     </row>
     <row r="232">
@@ -8223,10 +8223,10 @@
         <v>9</v>
       </c>
       <c r="F232" t="n">
-        <v>2.87398673544584</v>
+        <v>2.87081339712919</v>
       </c>
       <c r="G232" t="n">
-        <v>-0.137596276137175</v>
+        <v>-0.140769614453824</v>
       </c>
     </row>
     <row r="233">
@@ -8246,10 +8246,10 @@
         <v>9</v>
       </c>
       <c r="F233" t="n">
-        <v>2.47476842250795</v>
+        <v>2.46930611118775</v>
       </c>
       <c r="G233" t="n">
-        <v>-1.38841065193873</v>
+        <v>-1.39387296325893</v>
       </c>
     </row>
     <row r="234">
@@ -8269,10 +8269,10 @@
         <v>9</v>
       </c>
       <c r="F234" t="n">
-        <v>5.72207084468665</v>
+        <v>5.72987721691678</v>
       </c>
       <c r="G234" t="n">
-        <v>2.07077006878523</v>
+        <v>2.07857644101537</v>
       </c>
     </row>
     <row r="235">
@@ -8292,10 +8292,10 @@
         <v>9</v>
       </c>
       <c r="F235" t="n">
-        <v>4.70756062767475</v>
+        <v>4.73287916816063</v>
       </c>
       <c r="G235" t="n">
-        <v>0.877450654220067</v>
+        <v>0.902769194705948</v>
       </c>
     </row>
     <row r="236">
@@ -8315,10 +8315,10 @@
         <v>9</v>
       </c>
       <c r="F236" t="n">
-        <v>3.23741007194245</v>
+        <v>3.24324324324324</v>
       </c>
       <c r="G236" t="n">
-        <v>0.29058111614488</v>
+        <v>0.296414287445678</v>
       </c>
     </row>
     <row r="237">
@@ -8338,10 +8338,10 @@
         <v>9</v>
       </c>
       <c r="F237" t="n">
-        <v>3.3032416906032</v>
+        <v>3.28638497652582</v>
       </c>
       <c r="G237" t="n">
-        <v>-0.717591642730132</v>
+        <v>-0.734448356807512</v>
       </c>
     </row>
     <row r="238">
@@ -8361,10 +8361,10 @@
         <v>9</v>
       </c>
       <c r="F238" t="n">
-        <v>4.37665782493369</v>
+        <v>4.34668071654373</v>
       </c>
       <c r="G238" t="n">
-        <v>-5.18119232068453</v>
+        <v>-5.21116942907448</v>
       </c>
     </row>
     <row r="239">
@@ -8407,10 +8407,10 @@
         <v>9</v>
       </c>
       <c r="F240" t="n">
-        <v>3.00700495472407</v>
+        <v>3.00597779675491</v>
       </c>
       <c r="G240" t="n">
-        <v>-0.0352776166062814</v>
+        <v>-0.0363047745754441</v>
       </c>
     </row>
     <row r="241">
@@ -8430,10 +8430,10 @@
         <v>9</v>
       </c>
       <c r="F241" t="n">
-        <v>3.9821029082774</v>
+        <v>3.96878483835006</v>
       </c>
       <c r="G241" t="n">
-        <v>0.829903425802693</v>
+        <v>0.816585355875345</v>
       </c>
     </row>
     <row r="242">
@@ -8453,10 +8453,10 @@
         <v>9</v>
       </c>
       <c r="F242" t="n">
-        <v>4.15993537964459</v>
+        <v>4.1515517936316</v>
       </c>
       <c r="G242" t="n">
-        <v>0.43919959369141</v>
+        <v>0.430816007678422</v>
       </c>
     </row>
     <row r="243">
@@ -8476,10 +8476,10 @@
         <v>9</v>
       </c>
       <c r="F243" t="n">
-        <v>2.24360303570688</v>
+        <v>2.24127931063054</v>
       </c>
       <c r="G243" t="n">
-        <v>0.801430537414187</v>
+        <v>0.799106812337848</v>
       </c>
     </row>
     <row r="244">
@@ -8499,10 +8499,10 @@
         <v>9</v>
       </c>
       <c r="F244" t="n">
-        <v>3.31704190369361</v>
+        <v>3.312795070817</v>
       </c>
       <c r="G244" t="n">
-        <v>1.18988334796363</v>
+        <v>1.18563651508701</v>
       </c>
     </row>
     <row r="245">
@@ -8522,10 +8522,10 @@
         <v>9</v>
       </c>
       <c r="F245" t="n">
-        <v>5.65552699228792</v>
+        <v>5.65968393972804</v>
       </c>
       <c r="G245" t="n">
-        <v>1.70094594295354</v>
+        <v>1.70510289039366</v>
       </c>
     </row>
     <row r="246">
@@ -8545,10 +8545,10 @@
         <v>9</v>
       </c>
       <c r="F246" t="n">
-        <v>2.93881912904088</v>
+        <v>2.93607366875751</v>
       </c>
       <c r="G246" t="n">
-        <v>0.35925034053985</v>
+        <v>0.35650488025648</v>
       </c>
     </row>
     <row r="247">
@@ -8568,10 +8568,10 @@
         <v>9</v>
       </c>
       <c r="F247" t="n">
-        <v>3.36661911554922</v>
+        <v>3.36517895337231</v>
       </c>
       <c r="G247" t="n">
-        <v>0.744241493171593</v>
+        <v>0.742801330994686</v>
       </c>
     </row>
     <row r="248">
@@ -8591,10 +8591,10 @@
         <v>9</v>
       </c>
       <c r="F248" t="n">
-        <v>3.15357342787834</v>
+        <v>3.14652764848259</v>
       </c>
       <c r="G248" t="n">
-        <v>0.754306028610936</v>
+        <v>0.747260249215193</v>
       </c>
     </row>
     <row r="249">
@@ -8614,10 +8614,10 @@
         <v>9</v>
       </c>
       <c r="F249" t="n">
-        <v>3.56394129979036</v>
+        <v>3.54043734814301</v>
       </c>
       <c r="G249" t="n">
-        <v>1.29659781417276</v>
+        <v>1.27309386252541</v>
       </c>
     </row>
     <row r="250">
@@ -8637,10 +8637,10 @@
         <v>9</v>
       </c>
       <c r="F250" t="n">
-        <v>1.59497973591319</v>
+        <v>1.5889554571503</v>
       </c>
       <c r="G250" t="n">
-        <v>0.208816831104556</v>
+        <v>0.202792552341663</v>
       </c>
     </row>
     <row r="251">
@@ -8660,10 +8660,10 @@
         <v>9</v>
       </c>
       <c r="F251" t="n">
-        <v>1.72432973634442</v>
+        <v>1.7229879946643</v>
       </c>
       <c r="G251" t="n">
-        <v>0.71672126420788</v>
+        <v>0.715379522527754</v>
       </c>
     </row>
     <row r="252">
@@ -8683,10 +8683,10 @@
         <v>9</v>
       </c>
       <c r="F252" t="n">
-        <v>2.91869993554921</v>
+        <v>2.91079381111978</v>
       </c>
       <c r="G252" t="n">
-        <v>1.30523555353651</v>
+        <v>1.29732942910708</v>
       </c>
     </row>
     <row r="253">
@@ -8706,10 +8706,10 @@
         <v>9</v>
       </c>
       <c r="F253" t="n">
-        <v>4.16666666666667</v>
+        <v>4.14990472157527</v>
       </c>
       <c r="G253" t="n">
-        <v>0.647480743410359</v>
+        <v>0.630718798318962</v>
       </c>
     </row>
     <row r="254">
@@ -8729,10 +8729,10 @@
         <v>9</v>
       </c>
       <c r="F254" t="n">
-        <v>2.34129857591118</v>
+        <v>2.33566096797496</v>
       </c>
       <c r="G254" t="n">
-        <v>0.700459925045177</v>
+        <v>0.69482231710896</v>
       </c>
     </row>
     <row r="255">
@@ -8752,10 +8752,10 @@
         <v>9</v>
       </c>
       <c r="F255" t="n">
-        <v>7.88561525129983</v>
+        <v>7.87424286126334</v>
       </c>
       <c r="G255" t="n">
-        <v>1.70421721548238</v>
+        <v>1.69284482544589</v>
       </c>
     </row>
     <row r="256">
@@ -8775,10 +8775,10 @@
         <v>9</v>
       </c>
       <c r="F256" t="n">
-        <v>2.40396378761928</v>
+        <v>2.39707227813358</v>
       </c>
       <c r="G256" t="n">
-        <v>-0.00835543481763024</v>
+        <v>-0.0152469443033336</v>
       </c>
     </row>
     <row r="257">
@@ -8798,10 +8798,10 @@
         <v>9</v>
       </c>
       <c r="F257" t="n">
-        <v>3.29391891891892</v>
+        <v>3.27483415903938</v>
       </c>
       <c r="G257" t="n">
-        <v>0.109595587626818</v>
+        <v>0.090510827747281</v>
       </c>
     </row>
     <row r="258">
@@ -8821,10 +8821,10 @@
         <v>9</v>
       </c>
       <c r="F258" t="n">
-        <v>3.83806999908617</v>
+        <v>3.83351588170865</v>
       </c>
       <c r="G258" t="n">
-        <v>0.41601676714701</v>
+        <v>0.411462649769488</v>
       </c>
     </row>
     <row r="259">
@@ -8844,10 +8844,10 @@
         <v>9</v>
       </c>
       <c r="F259" t="n">
-        <v>3.83993532740501</v>
+        <v>3.82293762575453</v>
       </c>
       <c r="G259" t="n">
-        <v>0.11448483135318</v>
+        <v>0.0974871297026945</v>
       </c>
     </row>
     <row r="260">
@@ -8867,10 +8867,10 @@
         <v>9</v>
       </c>
       <c r="F260" t="n">
-        <v>4.31172149473012</v>
+        <v>4.29184549356223</v>
       </c>
       <c r="G260" t="n">
-        <v>1.16545012882481</v>
+        <v>1.14557412765692</v>
       </c>
     </row>
     <row r="261">
@@ -8890,10 +8890,10 @@
         <v>9</v>
       </c>
       <c r="F261" t="n">
-        <v>5.45942720763723</v>
+        <v>5.4270462633452</v>
       </c>
       <c r="G261" t="n">
-        <v>-0.510287410883445</v>
+        <v>-0.542668355175481</v>
       </c>
     </row>
     <row r="262">
@@ -8913,10 +8913,10 @@
         <v>9</v>
       </c>
       <c r="F262" t="n">
-        <v>4.23448458382956</v>
+        <v>4.22107901332278</v>
       </c>
       <c r="G262" t="n">
-        <v>0.0495503470818539</v>
+        <v>0.0361447765750729</v>
       </c>
     </row>
     <row r="263">
@@ -8936,10 +8936,10 @@
         <v>9</v>
       </c>
       <c r="F263" t="n">
-        <v>4.26195426195426</v>
+        <v>4.25090720580612</v>
       </c>
       <c r="G263" t="n">
-        <v>1.42982243909123</v>
+        <v>1.41877538294309</v>
       </c>
     </row>
     <row r="264">
@@ -8959,10 +8959,10 @@
         <v>9</v>
       </c>
       <c r="F264" t="n">
-        <v>4.76920456481008</v>
+        <v>4.72813238770686</v>
       </c>
       <c r="G264" t="n">
-        <v>1.85456195551099</v>
+        <v>1.81348977840776</v>
       </c>
     </row>
     <row r="265">
@@ -8982,10 +8982,10 @@
         <v>9</v>
       </c>
       <c r="F265" t="n">
-        <v>4.26860131601147</v>
+        <v>4.26069383630852</v>
       </c>
       <c r="G265" t="n">
-        <v>0.455927221303952</v>
+        <v>0.448019741601001</v>
       </c>
     </row>
     <row r="266">
@@ -9005,10 +9005,10 @@
         <v>9</v>
       </c>
       <c r="F266" t="n">
-        <v>8.79331184528606</v>
+        <v>8.84946781550938</v>
       </c>
       <c r="G266" t="n">
-        <v>3.77450368848543</v>
+        <v>3.83065965870874</v>
       </c>
     </row>
     <row r="267">
@@ -9028,10 +9028,10 @@
         <v>9</v>
       </c>
       <c r="F267" t="n">
-        <v>6.99182407668452</v>
+        <v>6.98985343855693</v>
       </c>
       <c r="G267" t="n">
-        <v>1.39904807901485</v>
+        <v>1.39707744088726</v>
       </c>
     </row>
     <row r="268">
@@ -9051,10 +9051,10 @@
         <v>9</v>
       </c>
       <c r="F268" t="n">
-        <v>7.66926303175554</v>
+        <v>7.74349667271627</v>
       </c>
       <c r="G268" t="n">
-        <v>0.488877742788818</v>
+        <v>0.56311138374955</v>
       </c>
     </row>
     <row r="269">
@@ -9074,10 +9074,10 @@
         <v>9</v>
       </c>
       <c r="F269" t="n">
-        <v>4.82425913163336</v>
+        <v>4.86111111111111</v>
       </c>
       <c r="G269" t="n">
-        <v>1.30365988069703</v>
+        <v>1.34051186017478</v>
       </c>
     </row>
     <row r="270">
@@ -9097,10 +9097,10 @@
         <v>9</v>
       </c>
       <c r="F270" t="n">
-        <v>6.85997171145686</v>
+        <v>6.88920454545454</v>
       </c>
       <c r="G270" t="n">
-        <v>1.89594293447844</v>
+        <v>1.92517576847613</v>
       </c>
     </row>
     <row r="271">
@@ -9120,10 +9120,10 @@
         <v>9</v>
       </c>
       <c r="F271" t="n">
-        <v>4.60122699386503</v>
+        <v>4.60475825019186</v>
       </c>
       <c r="G271" t="n">
-        <v>0.342671860785183</v>
+        <v>0.346203117112017</v>
       </c>
     </row>
     <row r="272">
@@ -9143,10 +9143,10 @@
         <v>9</v>
       </c>
       <c r="F272" t="n">
-        <v>3.86276687646551</v>
+        <v>3.86086098433453</v>
       </c>
       <c r="G272" t="n">
-        <v>0.429290481615721</v>
+        <v>0.427384589484741</v>
       </c>
     </row>
     <row r="273">
@@ -9166,10 +9166,10 @@
         <v>9</v>
       </c>
       <c r="F273" t="n">
-        <v>5.91324200913242</v>
+        <v>5.92813000686656</v>
       </c>
       <c r="G273" t="n">
-        <v>1.22136525843214</v>
+        <v>1.23625325616628</v>
       </c>
     </row>
     <row r="274">
@@ -9189,10 +9189,10 @@
         <v>9</v>
       </c>
       <c r="F274" t="n">
-        <v>6.1217008797654</v>
+        <v>6.13069016152717</v>
       </c>
       <c r="G274" t="n">
-        <v>1.47313263878362</v>
+        <v>1.48212192054539</v>
       </c>
     </row>
     <row r="275">
@@ -9212,10 +9212,10 @@
         <v>9</v>
       </c>
       <c r="F275" t="n">
-        <v>3.30772513871105</v>
+        <v>3.3016188582789</v>
       </c>
       <c r="G275" t="n">
-        <v>-0.0201189672310345</v>
+        <v>-0.026225247663191</v>
       </c>
     </row>
     <row r="276">
@@ -9235,10 +9235,10 @@
         <v>9</v>
       </c>
       <c r="F276" t="n">
-        <v>3.42696629213483</v>
+        <v>3.41463414634146</v>
       </c>
       <c r="G276" t="n">
-        <v>0.0271439550598092</v>
+        <v>0.0148118092664413</v>
       </c>
     </row>
     <row r="277">
@@ -9258,10 +9258,10 @@
         <v>9</v>
       </c>
       <c r="F277" t="n">
-        <v>3.92817059483726</v>
+        <v>3.90334572490706</v>
       </c>
       <c r="G277" t="n">
-        <v>0.0751559676521034</v>
+        <v>0.0503310977219047</v>
       </c>
     </row>
     <row r="278">
@@ -9281,10 +9281,10 @@
         <v>9</v>
       </c>
       <c r="F278" t="n">
-        <v>4.11726665229575</v>
+        <v>4.11017860985582</v>
       </c>
       <c r="G278" t="n">
-        <v>0.349024439270269</v>
+        <v>0.341936396830336</v>
       </c>
     </row>
     <row r="279">
@@ -9327,10 +9327,10 @@
         <v>9</v>
       </c>
       <c r="F280" t="n">
-        <v>4.27058421592074</v>
+        <v>4.24736663268773</v>
       </c>
       <c r="G280" t="n">
-        <v>0.350296728171636</v>
+        <v>0.327079144938633</v>
       </c>
     </row>
     <row r="281">
@@ -9350,10 +9350,10 @@
         <v>9</v>
       </c>
       <c r="F281" t="n">
-        <v>5.21013241220495</v>
+        <v>5.21914648212226</v>
       </c>
       <c r="G281" t="n">
-        <v>-0.543446032925557</v>
+        <v>-0.534431963008248</v>
       </c>
     </row>
     <row r="282">
@@ -9373,10 +9373,10 @@
         <v>9</v>
       </c>
       <c r="F282" t="n">
-        <v>3.7953091684435</v>
+        <v>3.77758913412564</v>
       </c>
       <c r="G282" t="n">
-        <v>-0.55966207231246</v>
+        <v>-0.577382106630321</v>
       </c>
     </row>
     <row r="283">
@@ -9396,10 +9396,10 @@
         <v>9</v>
       </c>
       <c r="F283" t="n">
-        <v>3.76733595528876</v>
+        <v>3.74408557909895</v>
       </c>
       <c r="G283" t="n">
-        <v>-0.423915316328737</v>
+        <v>-0.447165692518547</v>
       </c>
     </row>
     <row r="284">
@@ -9419,10 +9419,10 @@
         <v>9</v>
       </c>
       <c r="F284" t="n">
-        <v>3.1875</v>
+        <v>3.17164179104478</v>
       </c>
       <c r="G284" t="n">
-        <v>0.876040646425073</v>
+        <v>0.86018243746985</v>
       </c>
     </row>
     <row r="285">
@@ -9442,10 +9442,10 @@
         <v>9</v>
       </c>
       <c r="F285" t="n">
-        <v>2.13550983899821</v>
+        <v>2.13217235990176</v>
       </c>
       <c r="G285" t="n">
-        <v>0.575755884692412</v>
+        <v>0.572418405595964</v>
       </c>
     </row>
     <row r="286">
@@ -9465,10 +9465,10 @@
         <v>9</v>
       </c>
       <c r="F286" t="n">
-        <v>3.60202832663053</v>
+        <v>3.58447885853489</v>
       </c>
       <c r="G286" t="n">
-        <v>1.3974124120594</v>
+        <v>1.37986294396375</v>
       </c>
     </row>
     <row r="287">
@@ -9488,10 +9488,10 @@
         <v>9</v>
       </c>
       <c r="F287" t="n">
-        <v>5.28455284552846</v>
+        <v>5.28202676864245</v>
       </c>
       <c r="G287" t="n">
-        <v>0.379600956300576</v>
+        <v>0.377074879414567</v>
       </c>
     </row>
     <row r="288">
@@ -9511,10 +9511,10 @@
         <v>9</v>
       </c>
       <c r="F288" t="n">
-        <v>2.57918552036199</v>
+        <v>2.57220216606498</v>
       </c>
       <c r="G288" t="n">
-        <v>0.875149645922529</v>
+        <v>0.86816629162552</v>
       </c>
     </row>
     <row r="289">
@@ -9534,10 +9534,10 @@
         <v>9</v>
       </c>
       <c r="F289" t="n">
-        <v>5.64334085778781</v>
+        <v>5.63380281690141</v>
       </c>
       <c r="G289" t="n">
-        <v>2.25530485990533</v>
+        <v>2.24576681901893</v>
       </c>
     </row>
     <row r="290">
@@ -9557,10 +9557,10 @@
         <v>9</v>
       </c>
       <c r="F290" t="n">
-        <v>2.71507498026835</v>
+        <v>2.72151898734177</v>
       </c>
       <c r="G290" t="n">
-        <v>0.98823039628091</v>
+        <v>0.994674403354331</v>
       </c>
     </row>
     <row r="291">
@@ -9580,10 +9580,10 @@
         <v>9</v>
       </c>
       <c r="F291" t="n">
-        <v>4.44893832153691</v>
+        <v>4.4466902475998</v>
       </c>
       <c r="G291" t="n">
-        <v>1.85876645031928</v>
+        <v>1.85651837638217</v>
       </c>
     </row>
     <row r="292">
@@ -9603,10 +9603,10 @@
         <v>9</v>
       </c>
       <c r="F292" t="n">
-        <v>3.00153139356815</v>
+        <v>2.99145299145299</v>
       </c>
       <c r="G292" t="n">
-        <v>1.39602680641218</v>
+        <v>1.38594840429703</v>
       </c>
     </row>
     <row r="293">
@@ -9626,10 +9626,10 @@
         <v>9</v>
       </c>
       <c r="F293" t="n">
-        <v>2.39948119325551</v>
+        <v>2.38786705388835</v>
       </c>
       <c r="G293" t="n">
-        <v>1.16070757913349</v>
+        <v>1.14909343976633</v>
       </c>
     </row>
     <row r="294">
@@ -9649,10 +9649,10 @@
         <v>9</v>
       </c>
       <c r="F294" t="n">
-        <v>3.43170899107756</v>
+        <v>3.41646737273659</v>
       </c>
       <c r="G294" t="n">
-        <v>0.362996516094235</v>
+        <v>0.347754897753267</v>
       </c>
     </row>
     <row r="295">
@@ -9672,10 +9672,10 @@
         <v>9</v>
       </c>
       <c r="F295" t="n">
-        <v>3.9523394362104</v>
+        <v>3.93063583815029</v>
       </c>
       <c r="G295" t="n">
-        <v>0.210936410075603</v>
+        <v>0.189232812015489</v>
       </c>
     </row>
     <row r="296">
@@ -9695,10 +9695,10 @@
         <v>9</v>
       </c>
       <c r="F296" t="n">
-        <v>2.83535068811142</v>
+        <v>2.82504543201718</v>
       </c>
       <c r="G296" t="n">
-        <v>0.564087801513486</v>
+        <v>0.553782545419244</v>
       </c>
     </row>
     <row r="297">
@@ -9718,10 +9718,10 @@
         <v>9</v>
       </c>
       <c r="F297" t="n">
-        <v>2.80461202866937</v>
+        <v>2.79503105590062</v>
       </c>
       <c r="G297" t="n">
-        <v>0.242855395549514</v>
+        <v>0.233274422780768</v>
       </c>
     </row>
     <row r="298">
@@ -9741,10 +9741,10 @@
         <v>9</v>
       </c>
       <c r="F298" t="n">
-        <v>2.74453694068678</v>
+        <v>2.72574602764501</v>
       </c>
       <c r="G298" t="n">
-        <v>0.657297845573674</v>
+        <v>0.638506932531896</v>
       </c>
     </row>
     <row r="299">
@@ -9764,10 +9764,10 @@
         <v>9</v>
       </c>
       <c r="F299" t="n">
-        <v>2.36355822948002</v>
+        <v>2.34842015371477</v>
       </c>
       <c r="G299" t="n">
-        <v>-0.42598267258357</v>
+        <v>-0.441120748348814</v>
       </c>
     </row>
     <row r="300">
@@ -9787,10 +9787,10 @@
         <v>9</v>
       </c>
       <c r="F300" t="n">
-        <v>3.93145161290323</v>
+        <v>3.90130043347783</v>
       </c>
       <c r="G300" t="n">
-        <v>0.215675863229172</v>
+        <v>0.185524683803772</v>
       </c>
     </row>
     <row r="301">
@@ -9810,10 +9810,10 @@
         <v>9</v>
       </c>
       <c r="F301" t="n">
-        <v>1.91401093720536</v>
+        <v>1.91256830601093</v>
       </c>
       <c r="G301" t="n">
-        <v>-0.0770604913660733</v>
+        <v>-0.0785031225604995</v>
       </c>
     </row>
     <row r="302">
@@ -9833,10 +9833,10 @@
         <v>9</v>
       </c>
       <c r="F302" t="n">
-        <v>3.45238095238095</v>
+        <v>3.4487884643972</v>
       </c>
       <c r="G302" t="n">
-        <v>-0.0605651637841982</v>
+        <v>-0.0641576517679456</v>
       </c>
     </row>
     <row r="303">
@@ -9856,10 +9856,10 @@
         <v>9</v>
       </c>
       <c r="F303" t="n">
-        <v>2.56268640229758</v>
+        <v>2.5564738292011</v>
       </c>
       <c r="G303" t="n">
-        <v>-0.0447836470329337</v>
+        <v>-0.0509962201294125</v>
       </c>
     </row>
     <row r="304">
@@ -9879,10 +9879,10 @@
         <v>9</v>
       </c>
       <c r="F304" t="n">
-        <v>2.5625</v>
+        <v>2.55664103097069</v>
       </c>
       <c r="G304" t="n">
-        <v>0.235980365788058</v>
+        <v>0.23012139675875</v>
       </c>
     </row>
     <row r="305">
@@ -9902,10 +9902,10 @@
         <v>9</v>
       </c>
       <c r="F305" t="n">
-        <v>3.56090373280943</v>
+        <v>3.55218030377266</v>
       </c>
       <c r="G305" t="n">
-        <v>-0.658602838553263</v>
+        <v>-0.667326267590032</v>
       </c>
     </row>
     <row r="306">
@@ -9925,10 +9925,10 @@
         <v>9</v>
       </c>
       <c r="F306" t="n">
-        <v>2.3731048121292</v>
+        <v>2.36803157375432</v>
       </c>
       <c r="G306" t="n">
-        <v>0.452565301793475</v>
+        <v>0.447492063418588</v>
       </c>
     </row>
     <row r="307">
@@ -9948,10 +9948,10 @@
         <v>9</v>
       </c>
       <c r="F307" t="n">
-        <v>3.78698224852071</v>
+        <v>3.78250591016548</v>
       </c>
       <c r="G307" t="n">
-        <v>0.159811441749992</v>
+        <v>0.155335103394766</v>
       </c>
     </row>
     <row r="308">
@@ -9971,10 +9971,10 @@
         <v>9</v>
       </c>
       <c r="F308" t="n">
-        <v>3.55152442356027</v>
+        <v>3.53452963567156</v>
       </c>
       <c r="G308" t="n">
-        <v>0.462604026558038</v>
+        <v>0.445609238669332</v>
       </c>
     </row>
     <row r="309">
@@ -9994,10 +9994,10 @@
         <v>9</v>
       </c>
       <c r="F309" t="n">
-        <v>3.11033883579496</v>
+        <v>3.10144676427272</v>
       </c>
       <c r="G309" t="n">
-        <v>-0.0358213623883588</v>
+        <v>-0.0447134339106001</v>
       </c>
     </row>
     <row r="310">
@@ -10017,10 +10017,10 @@
         <v>9</v>
       </c>
       <c r="F310" t="n">
-        <v>3.68132482936108</v>
+        <v>3.6751563896336</v>
       </c>
       <c r="G310" t="n">
-        <v>-0.154321548084005</v>
+        <v>-0.160489987811486</v>
       </c>
     </row>
     <row r="311">
@@ -10040,10 +10040,10 @@
         <v>9</v>
       </c>
       <c r="F311" t="n">
-        <v>3.09833857207005</v>
+        <v>3.09047476858764</v>
       </c>
       <c r="G311" t="n">
-        <v>0.166391590664027</v>
+        <v>0.158527787181615</v>
       </c>
     </row>
     <row r="312">
@@ -10063,10 +10063,10 @@
         <v>9</v>
       </c>
       <c r="F312" t="n">
-        <v>2.75246419936768</v>
+        <v>2.74735474289957</v>
       </c>
       <c r="G312" t="n">
-        <v>0.18791732707518</v>
+        <v>0.182807870607076</v>
       </c>
     </row>
     <row r="313">
@@ -10086,10 +10086,10 @@
         <v>9</v>
       </c>
       <c r="F313" t="n">
-        <v>3.06473171663166</v>
+        <v>3.0562696372465</v>
       </c>
       <c r="G313" t="n">
-        <v>0.325872456033268</v>
+        <v>0.31741037664811</v>
       </c>
     </row>
     <row r="314">
@@ -10109,10 +10109,10 @@
         <v>9</v>
       </c>
       <c r="F314" t="n">
-        <v>3.76091336467428</v>
+        <v>3.75586854460094</v>
       </c>
       <c r="G314" t="n">
-        <v>0.685780385950874</v>
+        <v>0.680735565877535</v>
       </c>
     </row>
     <row r="315">
@@ -10132,10 +10132,10 @@
         <v>9</v>
       </c>
       <c r="F315" t="n">
-        <v>4.64908928798879</v>
+        <v>4.63609805664931</v>
       </c>
       <c r="G315" t="n">
-        <v>0.402988768058115</v>
+        <v>0.389997536718631</v>
       </c>
     </row>
     <row r="316">
@@ -10155,10 +10155,10 @@
         <v>9</v>
       </c>
       <c r="F316" t="n">
-        <v>3.50467289719626</v>
+        <v>3.49378881987578</v>
       </c>
       <c r="G316" t="n">
-        <v>0.751667856482807</v>
+        <v>0.740783779162321</v>
       </c>
     </row>
     <row r="317">
@@ -10178,10 +10178,10 @@
         <v>9</v>
       </c>
       <c r="F317" t="n">
-        <v>5.73835219794683</v>
+        <v>5.71878279118573</v>
       </c>
       <c r="G317" t="n">
-        <v>1.97464332456697</v>
+        <v>1.95507391780587</v>
       </c>
     </row>
     <row r="318">
@@ -10201,10 +10201,10 @@
         <v>9</v>
       </c>
       <c r="F318" t="n">
-        <v>3.70210934136892</v>
+        <v>3.6872945548092</v>
       </c>
       <c r="G318" t="n">
-        <v>-0.180572222876891</v>
+        <v>-0.195387009436606</v>
       </c>
     </row>
     <row r="319">
@@ -10224,10 +10224,10 @@
         <v>9</v>
       </c>
       <c r="F319" t="n">
-        <v>3.67004543865781</v>
+        <v>3.6738978306508</v>
       </c>
       <c r="G319" t="n">
-        <v>0.667975045283071</v>
+        <v>0.671827437276063</v>
       </c>
     </row>
     <row r="320">
@@ -10247,10 +10247,10 @@
         <v>9</v>
       </c>
       <c r="F320" t="n">
-        <v>3.92193657346594</v>
+        <v>3.91532409142001</v>
       </c>
       <c r="G320" t="n">
-        <v>0.570605350230045</v>
+        <v>0.563992868184111</v>
       </c>
     </row>
     <row r="321">
@@ -10270,10 +10270,10 @@
         <v>9</v>
       </c>
       <c r="F321" t="n">
-        <v>3.48623853211009</v>
+        <v>3.48176653839106</v>
       </c>
       <c r="G321" t="n">
-        <v>0.42932247063399</v>
+        <v>0.424850476914955</v>
       </c>
     </row>
     <row r="322">
@@ -10293,10 +10293,10 @@
         <v>9</v>
       </c>
       <c r="F322" t="n">
-        <v>3.42230227607663</v>
+        <v>3.42286275794301</v>
       </c>
       <c r="G322" t="n">
-        <v>0.232838613747214</v>
+        <v>0.233399095613588</v>
       </c>
     </row>
     <row r="323">
@@ -10316,10 +10316,10 @@
         <v>9</v>
       </c>
       <c r="F323" t="n">
-        <v>3.93368923855015</v>
+        <v>3.91061452513966</v>
       </c>
       <c r="G323" t="n">
-        <v>-0.959196241481583</v>
+        <v>-0.982270954892073</v>
       </c>
     </row>
     <row r="324">
@@ -10339,10 +10339,10 @@
         <v>9</v>
       </c>
       <c r="F324" t="n">
-        <v>2.77874813426911</v>
+        <v>2.7687244881815</v>
       </c>
       <c r="G324" t="n">
-        <v>0.263378070424229</v>
+        <v>0.253354424336621</v>
       </c>
     </row>
     <row r="325">
@@ -10362,10 +10362,10 @@
         <v>9</v>
       </c>
       <c r="F325" t="n">
-        <v>2.90593582151219</v>
+        <v>2.89596486412298</v>
       </c>
       <c r="G325" t="n">
-        <v>0.222673374677062</v>
+        <v>0.212702417287849</v>
       </c>
     </row>
     <row r="326">
@@ -10385,10 +10385,10 @@
         <v>9</v>
       </c>
       <c r="F326" t="n">
-        <v>2.76872964169381</v>
+        <v>2.74784482758621</v>
       </c>
       <c r="G326" t="n">
-        <v>0.608064821749213</v>
+        <v>0.587180007641608</v>
       </c>
     </row>
     <row r="327">
@@ -10408,10 +10408,10 @@
         <v>9</v>
       </c>
       <c r="F327" t="n">
-        <v>3.16713032313289</v>
+        <v>3.16780821917808</v>
       </c>
       <c r="G327" t="n">
-        <v>-0.05729846183401</v>
+        <v>-0.056620565788819</v>
       </c>
     </row>
     <row r="328">
@@ -10431,10 +10431,10 @@
         <v>9</v>
       </c>
       <c r="F328" t="n">
-        <v>4.29260450160772</v>
+        <v>4.28640231176754</v>
       </c>
       <c r="G328" t="n">
-        <v>0.51377250422509</v>
+        <v>0.507570314384913</v>
       </c>
     </row>
     <row r="329">
@@ -10454,10 +10454,10 @@
         <v>9</v>
       </c>
       <c r="F329" t="n">
-        <v>5.86250527203712</v>
+        <v>5.85633031388245</v>
       </c>
       <c r="G329" t="n">
-        <v>0.299926258130667</v>
+        <v>0.293751299976003</v>
       </c>
     </row>
     <row r="330">
@@ -10477,10 +10477,10 @@
         <v>9</v>
       </c>
       <c r="F330" t="n">
-        <v>4.56593571643136</v>
+        <v>4.53190220632081</v>
       </c>
       <c r="G330" t="n">
-        <v>-1.69162172008617</v>
+        <v>-1.72565523019672</v>
       </c>
     </row>
     <row r="331">
@@ -10500,10 +10500,10 @@
         <v>9</v>
       </c>
       <c r="F331" t="n">
-        <v>5.4783950617284</v>
+        <v>5.45734050730208</v>
       </c>
       <c r="G331" t="n">
-        <v>-1.03515915513908</v>
+        <v>-1.0562137095654</v>
       </c>
     </row>
     <row r="332">
@@ -10523,10 +10523,10 @@
         <v>9</v>
       </c>
       <c r="F332" t="n">
-        <v>5.03848845346396</v>
+        <v>5.02793296089385</v>
       </c>
       <c r="G332" t="n">
-        <v>-1.23542126344499</v>
+        <v>-1.2459767560151</v>
       </c>
     </row>
     <row r="333">
@@ -10546,10 +10546,10 @@
         <v>9</v>
       </c>
       <c r="F333" t="n">
-        <v>3.18651249006973</v>
+        <v>3.17362637362637</v>
       </c>
       <c r="G333" t="n">
-        <v>-0.388014665925409</v>
+        <v>-0.400900782368767</v>
       </c>
     </row>
     <row r="334">
@@ -10569,10 +10569,10 @@
         <v>9</v>
       </c>
       <c r="F334" t="n">
-        <v>6.57705232837254</v>
+        <v>6.59287776708373</v>
       </c>
       <c r="G334" t="n">
-        <v>-0.0132055512836198</v>
+        <v>0.00261988742757335</v>
       </c>
     </row>
     <row r="335">
@@ -10592,10 +10592,10 @@
         <v>9</v>
       </c>
       <c r="F335" t="n">
-        <v>5.44822256568779</v>
+        <v>5.41995002882952</v>
       </c>
       <c r="G335" t="n">
-        <v>0.430106623658804</v>
+        <v>0.401834086800536</v>
       </c>
     </row>
     <row r="336">
@@ -10615,10 +10615,10 @@
         <v>9</v>
       </c>
       <c r="F336" t="n">
-        <v>3.50831260636209</v>
+        <v>3.49778125815714</v>
       </c>
       <c r="G336" t="n">
-        <v>0.300033175572956</v>
+        <v>0.289501827368006</v>
       </c>
     </row>
     <row r="337">
@@ -10638,10 +10638,10 @@
         <v>9</v>
       </c>
       <c r="F337" t="n">
-        <v>5.09605662285137</v>
+        <v>5.07246376811594</v>
       </c>
       <c r="G337" t="n">
-        <v>0.728524690424501</v>
+        <v>0.704931835689078</v>
       </c>
     </row>
     <row r="338">
@@ -10661,10 +10661,10 @@
         <v>9</v>
       </c>
       <c r="F338" t="n">
-        <v>5.1368578927634</v>
+        <v>5.12532734754957</v>
       </c>
       <c r="G338" t="n">
-        <v>1.79780046097558</v>
+        <v>1.78626991576174</v>
       </c>
     </row>
     <row r="339">
@@ -10684,10 +10684,10 @@
         <v>9</v>
       </c>
       <c r="F339" t="n">
-        <v>3.36169546379913</v>
+        <v>3.35538998593237</v>
       </c>
       <c r="G339" t="n">
-        <v>1.11539787906601</v>
+        <v>1.10909240119924</v>
       </c>
     </row>
     <row r="340">
@@ -10707,10 +10707,10 @@
         <v>9</v>
       </c>
       <c r="F340" t="n">
-        <v>3.80248693458281</v>
+        <v>3.79564669904659</v>
       </c>
       <c r="G340" t="n">
-        <v>1.15137346692639</v>
+        <v>1.14453323139018</v>
       </c>
     </row>
     <row r="341">
@@ -10730,10 +10730,10 @@
         <v>9</v>
       </c>
       <c r="F341" t="n">
-        <v>3.49592982898971</v>
+        <v>3.48954396573444</v>
       </c>
       <c r="G341" t="n">
-        <v>0.211190947277221</v>
+        <v>0.204805084021949</v>
       </c>
     </row>
     <row r="342">
@@ -10753,10 +10753,10 @@
         <v>9</v>
       </c>
       <c r="F342" t="n">
-        <v>3.15282440519632</v>
+        <v>3.14754098360656</v>
       </c>
       <c r="G342" t="n">
-        <v>0.860481658527814</v>
+        <v>0.855198236938049</v>
       </c>
     </row>
     <row r="343">
@@ -10776,10 +10776,10 @@
         <v>9</v>
       </c>
       <c r="F343" t="n">
-        <v>3.05750350631136</v>
+        <v>3.04951972395785</v>
       </c>
       <c r="G343" t="n">
-        <v>-0.203833728005824</v>
+        <v>-0.211817510359337</v>
       </c>
     </row>
     <row r="344">
@@ -10799,10 +10799,10 @@
         <v>9</v>
       </c>
       <c r="F344" t="n">
-        <v>3.37538356631435</v>
+        <v>3.38230269900922</v>
       </c>
       <c r="G344" t="n">
-        <v>0.362884901641776</v>
+        <v>0.369804034336647</v>
       </c>
     </row>
     <row r="345">
@@ -10822,10 +10822,10 @@
         <v>9</v>
       </c>
       <c r="F345" t="n">
-        <v>3.70715982354937</v>
+        <v>3.69493531749387</v>
       </c>
       <c r="G345" t="n">
-        <v>0.230923471590476</v>
+        <v>0.218698965534975</v>
       </c>
     </row>
     <row r="346">
@@ -10845,10 +10845,10 @@
         <v>9</v>
       </c>
       <c r="F346" t="n">
-        <v>4.89315577578198</v>
+        <v>4.88005765468959</v>
       </c>
       <c r="G346" t="n">
-        <v>0.0536912059046006</v>
+        <v>0.0405930848122162</v>
       </c>
     </row>
     <row r="347">
@@ -10868,10 +10868,10 @@
         <v>9</v>
       </c>
       <c r="F347" t="n">
-        <v>4.34153400868307</v>
+        <v>4.33714037877693</v>
       </c>
       <c r="G347" t="n">
-        <v>0.912407255941155</v>
+        <v>0.908013626035013</v>
       </c>
     </row>
     <row r="348">
@@ -10891,10 +10891,10 @@
         <v>9</v>
       </c>
       <c r="F348" t="n">
-        <v>4.86041373769833</v>
+        <v>4.86334405144695</v>
       </c>
       <c r="G348" t="n">
-        <v>1.31209397146999</v>
+        <v>1.3150242852186</v>
       </c>
     </row>
     <row r="349">
@@ -10914,10 +10914,10 @@
         <v>9</v>
       </c>
       <c r="F349" t="n">
-        <v>4.6680642907058</v>
+        <v>4.66068189218103</v>
       </c>
       <c r="G349" t="n">
-        <v>1.13743085353031</v>
+        <v>1.13004845500554</v>
       </c>
     </row>
     <row r="350">
@@ -10937,10 +10937,10 @@
         <v>9</v>
       </c>
       <c r="F350" t="n">
-        <v>3.82141216112728</v>
+        <v>3.81236152494461</v>
       </c>
       <c r="G350" t="n">
-        <v>1.08138261902979</v>
+        <v>1.07233198284712</v>
       </c>
     </row>
     <row r="351">
@@ -10960,10 +10960,10 @@
         <v>9</v>
       </c>
       <c r="F351" t="n">
-        <v>5.22195534205142</v>
+        <v>5.21870554765292</v>
       </c>
       <c r="G351" t="n">
-        <v>1.81874509733604</v>
+        <v>1.81549530293754</v>
       </c>
     </row>
     <row r="352">
@@ -10983,10 +10983,10 @@
         <v>9</v>
       </c>
       <c r="F352" t="n">
-        <v>2.55503144654088</v>
+        <v>2.55051991367471</v>
       </c>
       <c r="G352" t="n">
-        <v>-0.239060028810605</v>
+        <v>-0.243571561676776</v>
       </c>
     </row>
     <row r="353">
@@ -11006,10 +11006,10 @@
         <v>9</v>
       </c>
       <c r="F353" t="n">
-        <v>4.67233009708738</v>
+        <v>4.66525295365041</v>
       </c>
       <c r="G353" t="n">
-        <v>-0.972151790022983</v>
+        <v>-0.979228933459953</v>
       </c>
     </row>
     <row r="354">
@@ -11029,10 +11029,10 @@
         <v>9</v>
       </c>
       <c r="F354" t="n">
-        <v>2.71411338962606</v>
+        <v>2.71356783919598</v>
       </c>
       <c r="G354" t="n">
-        <v>-0.119592799784832</v>
+        <v>-0.120138350214908</v>
       </c>
     </row>
     <row r="355">
@@ -11052,10 +11052,10 @@
         <v>9</v>
       </c>
       <c r="F355" t="n">
-        <v>2.49110320284698</v>
+        <v>2.48123436196831</v>
       </c>
       <c r="G355" t="n">
-        <v>-0.524739515228994</v>
+        <v>-0.534608356107662</v>
       </c>
     </row>
     <row r="356">
@@ -11075,10 +11075,10 @@
         <v>9</v>
       </c>
       <c r="F356" t="n">
-        <v>2.45922857882475</v>
+        <v>2.45604963805584</v>
       </c>
       <c r="G356" t="n">
-        <v>0.42525450640633</v>
+        <v>0.422075565637425</v>
       </c>
     </row>
     <row r="357">
@@ -11098,10 +11098,10 @@
         <v>9</v>
       </c>
       <c r="F357" t="n">
-        <v>2.46747187807786</v>
+        <v>2.45677419354839</v>
       </c>
       <c r="G357" t="n">
-        <v>0.0438346067121809</v>
+        <v>0.0331369221827083</v>
       </c>
     </row>
     <row r="358">
@@ -11144,10 +11144,10 @@
         <v>9</v>
       </c>
       <c r="F359" t="n">
-        <v>3.03664921465969</v>
+        <v>3.02353291629431</v>
       </c>
       <c r="G359" t="n">
-        <v>0.602268689703886</v>
+        <v>0.58915239133851</v>
       </c>
     </row>
     <row r="360">
@@ -11167,10 +11167,10 @@
         <v>9</v>
       </c>
       <c r="F360" t="n">
-        <v>3.728949478749</v>
+        <v>3.72372372372372</v>
       </c>
       <c r="G360" t="n">
-        <v>1.17420495320155</v>
+        <v>1.16897919817628</v>
       </c>
     </row>
     <row r="361">
@@ -11190,10 +11190,10 @@
         <v>9</v>
       </c>
       <c r="F361" t="n">
-        <v>4.16309421739545</v>
+        <v>4.15517733193877</v>
       </c>
       <c r="G361" t="n">
-        <v>-1.02592795635955</v>
+        <v>-1.03384484181623</v>
       </c>
     </row>
     <row r="362">
@@ -11213,10 +11213,10 @@
         <v>9</v>
       </c>
       <c r="F362" t="n">
-        <v>3.35031650455458</v>
+        <v>3.34051724137931</v>
       </c>
       <c r="G362" t="n">
-        <v>-0.835430490293734</v>
+        <v>-0.845229753469001</v>
       </c>
     </row>
     <row r="363">
@@ -11236,10 +11236,10 @@
         <v>9</v>
       </c>
       <c r="F363" t="n">
-        <v>3.68692816378295</v>
+        <v>3.67959497332972</v>
       </c>
       <c r="G363" t="n">
-        <v>-0.235324080616944</v>
+        <v>-0.242657271070178</v>
       </c>
     </row>
     <row r="364">
@@ -11259,10 +11259,10 @@
         <v>9</v>
       </c>
       <c r="F364" t="n">
-        <v>3.08232539992197</v>
+        <v>3.09439874657266</v>
       </c>
       <c r="G364" t="n">
-        <v>-0.54193495510762</v>
+        <v>-0.529861608456926</v>
       </c>
     </row>
     <row r="365">
@@ -11282,10 +11282,10 @@
         <v>9</v>
       </c>
       <c r="F365" t="n">
-        <v>6.50571056816539</v>
+        <v>6.5000722230247</v>
       </c>
       <c r="G365" t="n">
-        <v>0.620885011208684</v>
+        <v>0.615246666067994</v>
       </c>
     </row>
     <row r="366">
@@ -11305,10 +11305,10 @@
         <v>9</v>
       </c>
       <c r="F366" t="n">
-        <v>3.25097529258778</v>
+        <v>3.25945241199478</v>
       </c>
       <c r="G366" t="n">
-        <v>-0.537844583188621</v>
+        <v>-0.529367463781612</v>
       </c>
     </row>
     <row r="367">
@@ -11328,10 +11328,10 @@
         <v>9</v>
       </c>
       <c r="F367" t="n">
-        <v>3.81508078994614</v>
+        <v>3.77945753668297</v>
       </c>
       <c r="G367" t="n">
-        <v>0.43756903278496</v>
+        <v>0.40194577952179</v>
       </c>
     </row>
     <row r="368">
@@ -11351,10 +11351,10 @@
         <v>9</v>
       </c>
       <c r="F368" t="n">
-        <v>3.23153409090909</v>
+        <v>3.21214260501235</v>
       </c>
       <c r="G368" t="n">
-        <v>0.78461073718473</v>
+        <v>0.765219251287993</v>
       </c>
     </row>
     <row r="369">
@@ -11374,10 +11374,10 @@
         <v>9</v>
       </c>
       <c r="F369" t="n">
-        <v>2.06334603758707</v>
+        <v>2.06036745406824</v>
       </c>
       <c r="G369" t="n">
-        <v>0.482721435929962</v>
+        <v>0.479742852411135</v>
       </c>
     </row>
     <row r="370">
@@ -11397,10 +11397,10 @@
         <v>9</v>
       </c>
       <c r="F370" t="n">
-        <v>2.61361986351096</v>
+        <v>2.60492040520984</v>
       </c>
       <c r="G370" t="n">
-        <v>0.141617678315661</v>
+        <v>0.132918220014539</v>
       </c>
     </row>
     <row r="371">
@@ -11420,10 +11420,10 @@
         <v>9</v>
       </c>
       <c r="F371" t="n">
-        <v>3.02078298695022</v>
+        <v>3.01313727853441</v>
       </c>
       <c r="G371" t="n">
-        <v>0.629604809353003</v>
+        <v>0.621959100937195</v>
       </c>
     </row>
     <row r="372">
@@ -11443,10 +11443,10 @@
         <v>9</v>
       </c>
       <c r="F372" t="n">
-        <v>2.57826887661142</v>
+        <v>2.57471264367816</v>
       </c>
       <c r="G372" t="n">
-        <v>0.802595600494224</v>
+        <v>0.799039367560966</v>
       </c>
     </row>
     <row r="373">
@@ -11466,10 +11466,10 @@
         <v>9</v>
       </c>
       <c r="F373" t="n">
-        <v>3.33333333333333</v>
+        <v>3.32502078137988</v>
       </c>
       <c r="G373" t="n">
-        <v>0.342409240924093</v>
+        <v>0.334096688970642</v>
       </c>
     </row>
     <row r="374">
@@ -11489,10 +11489,10 @@
         <v>9</v>
       </c>
       <c r="F374" t="n">
-        <v>2.00328407224959</v>
+        <v>1.99607329842932</v>
       </c>
       <c r="G374" t="n">
-        <v>0.174826625441079</v>
+        <v>0.167615851620809</v>
       </c>
     </row>
     <row r="375">
@@ -11512,10 +11512,10 @@
         <v>9</v>
       </c>
       <c r="F375" t="n">
-        <v>2.67767767767768</v>
+        <v>2.68170426065163</v>
       </c>
       <c r="G375" t="n">
-        <v>-0.0106307169457058</v>
+        <v>-0.00660413397175397</v>
       </c>
     </row>
     <row r="376">
@@ -11535,10 +11535,10 @@
         <v>9</v>
       </c>
       <c r="F376" t="n">
-        <v>2.48979931717878</v>
+        <v>2.48132780082988</v>
       </c>
       <c r="G376" t="n">
-        <v>0.0496079296189746</v>
+        <v>0.0411364132700673</v>
       </c>
     </row>
     <row r="377">
@@ -11558,10 +11558,10 @@
         <v>9</v>
       </c>
       <c r="F377" t="n">
-        <v>3.49171066036862</v>
+        <v>3.48622156463843</v>
       </c>
       <c r="G377" t="n">
-        <v>0.0627829795706156</v>
+        <v>0.0572938838404262</v>
       </c>
     </row>
     <row r="378">
@@ -11581,10 +11581,10 @@
         <v>9</v>
       </c>
       <c r="F378" t="n">
-        <v>1.69997702733747</v>
+        <v>1.69394529014536</v>
       </c>
       <c r="G378" t="n">
-        <v>-0.0686384959248949</v>
+        <v>-0.0746702331170044</v>
       </c>
     </row>
     <row r="379">
@@ -11604,10 +11604,10 @@
         <v>9</v>
       </c>
       <c r="F379" t="n">
-        <v>2.90858725761773</v>
+        <v>2.90483216525267</v>
       </c>
       <c r="G379" t="n">
-        <v>-0.0179437111950609</v>
+        <v>-0.0216988035601156</v>
       </c>
     </row>
     <row r="380">
@@ -11627,10 +11627,10 @@
         <v>9</v>
       </c>
       <c r="F380" t="n">
-        <v>3.76302083333333</v>
+        <v>3.75324675324675</v>
       </c>
       <c r="G380" t="n">
-        <v>0.514580084892585</v>
+        <v>0.504806004806005</v>
       </c>
     </row>
     <row r="381">
@@ -11650,10 +11650,10 @@
         <v>9</v>
       </c>
       <c r="F381" t="n">
-        <v>2.04472843450479</v>
+        <v>2.03847623901134</v>
       </c>
       <c r="G381" t="n">
-        <v>-0.15591085735653</v>
+        <v>-0.162163052849984</v>
       </c>
     </row>
     <row r="382">
@@ -11673,10 +11673,10 @@
         <v>9</v>
       </c>
       <c r="F382" t="n">
-        <v>3.91246684350133</v>
+        <v>3.9021164021164</v>
       </c>
       <c r="G382" t="n">
-        <v>0.780475792047187</v>
+        <v>0.770125350662263</v>
       </c>
     </row>
     <row r="383">
@@ -11696,10 +11696,10 @@
         <v>9</v>
       </c>
       <c r="F383" t="n">
-        <v>4.24123788217748</v>
+        <v>4.23413363111856</v>
       </c>
       <c r="G383" t="n">
-        <v>1.47458334996052</v>
+        <v>1.46747909890159</v>
       </c>
     </row>
     <row r="384">
@@ -11719,10 +11719,10 @@
         <v>9</v>
       </c>
       <c r="F384" t="n">
-        <v>2.66324402374459</v>
+        <v>2.65983015542381</v>
       </c>
       <c r="G384" t="n">
-        <v>0.323787280142764</v>
+        <v>0.320373411821989</v>
       </c>
     </row>
     <row r="385">
@@ -11742,10 +11742,10 @@
         <v>9</v>
       </c>
       <c r="F385" t="n">
-        <v>2.55924170616114</v>
+        <v>2.56410256410256</v>
       </c>
       <c r="G385" t="n">
-        <v>0.929285759024574</v>
+        <v>0.934146616966</v>
       </c>
     </row>
     <row r="386">
@@ -11765,10 +11765,10 @@
         <v>9</v>
       </c>
       <c r="F386" t="n">
-        <v>3.18606627017842</v>
+        <v>3.18381208433564</v>
       </c>
       <c r="G386" t="n">
-        <v>0.438659485765748</v>
+        <v>0.436405299922973</v>
       </c>
     </row>
     <row r="387">
@@ -11788,10 +11788,10 @@
         <v>9</v>
       </c>
       <c r="F387" t="n">
-        <v>4.43197755960729</v>
+        <v>4.41587479038569</v>
       </c>
       <c r="G387" t="n">
-        <v>2.25923077849141</v>
+        <v>2.24312800926981</v>
       </c>
     </row>
     <row r="388">
@@ -11811,10 +11811,10 @@
         <v>9</v>
       </c>
       <c r="F388" t="n">
-        <v>6.91467002942413</v>
+        <v>6.90886182276354</v>
       </c>
       <c r="G388" t="n">
-        <v>0.818159904477984</v>
+        <v>0.812351697817399</v>
       </c>
     </row>
     <row r="389">
@@ -11834,10 +11834,10 @@
         <v>9</v>
       </c>
       <c r="F389" t="n">
-        <v>3.03813833225598</v>
+        <v>3.03617571059432</v>
       </c>
       <c r="G389" t="n">
-        <v>1.01666012631789</v>
+        <v>1.01469750465622</v>
       </c>
     </row>
     <row r="390">
@@ -11857,10 +11857,10 @@
         <v>9</v>
       </c>
       <c r="F390" t="n">
-        <v>4.33558558558559</v>
+        <v>4.32584269662921</v>
       </c>
       <c r="G390" t="n">
-        <v>2.09806407095564</v>
+        <v>2.08832118199927</v>
       </c>
     </row>
     <row r="391">
@@ -11880,10 +11880,10 @@
         <v>9</v>
       </c>
       <c r="F391" t="n">
-        <v>4.51653944020356</v>
+        <v>4.45979899497487</v>
       </c>
       <c r="G391" t="n">
-        <v>1.17409672420608</v>
+        <v>1.1173562789774</v>
       </c>
     </row>
     <row r="392">
@@ -11903,10 +11903,10 @@
         <v>9</v>
       </c>
       <c r="F392" t="n">
-        <v>3.27905420477359</v>
+        <v>3.27030033370412</v>
       </c>
       <c r="G392" t="n">
-        <v>1.75184405205257</v>
+        <v>1.7430901809831</v>
       </c>
     </row>
     <row r="393">
@@ -11926,10 +11926,10 @@
         <v>9</v>
       </c>
       <c r="F393" t="n">
-        <v>4.24581005586592</v>
+        <v>4.22065901517956</v>
       </c>
       <c r="G393" t="n">
-        <v>2.09957506132245</v>
+        <v>2.07442402063609</v>
       </c>
     </row>
     <row r="394">
@@ -11949,10 +11949,10 @@
         <v>9</v>
       </c>
       <c r="F394" t="n">
-        <v>6.96898966322107</v>
+        <v>6.93430656934307</v>
       </c>
       <c r="G394" t="n">
-        <v>3.83599733585535</v>
+        <v>3.80131424197734</v>
       </c>
     </row>
     <row r="395">
@@ -11972,10 +11972,10 @@
         <v>9</v>
       </c>
       <c r="F395" t="n">
-        <v>3.85224274406332</v>
+        <v>3.8400841662283</v>
       </c>
       <c r="G395" t="n">
-        <v>1.27265986810284</v>
+        <v>1.26050129026782</v>
       </c>
     </row>
     <row r="396">
@@ -11995,10 +11995,10 @@
         <v>9</v>
       </c>
       <c r="F396" t="n">
-        <v>2.50475038866816</v>
+        <v>2.50043110881186</v>
       </c>
       <c r="G396" t="n">
-        <v>0.987164243336973</v>
+        <v>0.982844963480673</v>
       </c>
     </row>
     <row r="397">
@@ -12018,10 +12018,10 @@
         <v>9</v>
       </c>
       <c r="F397" t="n">
-        <v>3.15091210613599</v>
+        <v>3.15265486725664</v>
       </c>
       <c r="G397" t="n">
-        <v>0.157563990836652</v>
+        <v>0.159306751957303</v>
       </c>
     </row>
     <row r="398">
@@ -12041,10 +12041,10 @@
         <v>9</v>
       </c>
       <c r="F398" t="n">
-        <v>3.74632713026445</v>
+        <v>3.7280701754386</v>
       </c>
       <c r="G398" t="n">
-        <v>1.3095886110517</v>
+        <v>1.29133165622585</v>
       </c>
     </row>
     <row r="399">
@@ -12064,10 +12064,10 @@
         <v>9</v>
       </c>
       <c r="F399" t="n">
-        <v>6.06337599024985</v>
+        <v>6.05231143552311</v>
       </c>
       <c r="G399" t="n">
-        <v>1.87063506409215</v>
+        <v>1.85957050936542</v>
       </c>
     </row>
     <row r="400">
@@ -12087,10 +12087,10 @@
         <v>9</v>
       </c>
       <c r="F400" t="n">
-        <v>2.81102891728312</v>
+        <v>2.80386369734371</v>
       </c>
       <c r="G400" t="n">
-        <v>1.0445260616582</v>
+        <v>1.03736084171879</v>
       </c>
     </row>
     <row r="401">
@@ -12110,10 +12110,10 @@
         <v>9</v>
       </c>
       <c r="F401" t="n">
-        <v>2.99079754601227</v>
+        <v>2.96577946768061</v>
       </c>
       <c r="G401" t="n">
-        <v>1.19034743348414</v>
+        <v>1.16532935515248</v>
       </c>
     </row>
     <row r="402">
@@ -12133,10 +12133,10 @@
         <v>9</v>
       </c>
       <c r="F402" t="n">
-        <v>3.18265682656827</v>
+        <v>3.17241379310345</v>
       </c>
       <c r="G402" t="n">
-        <v>0.646341401158997</v>
+        <v>0.636098367694179</v>
       </c>
     </row>
     <row r="403">
@@ -12156,10 +12156,10 @@
         <v>9</v>
       </c>
       <c r="F403" t="n">
-        <v>3.24523902059852</v>
+        <v>3.24650077760498</v>
       </c>
       <c r="G403" t="n">
-        <v>1.36330558161279</v>
+        <v>1.36456733861924</v>
       </c>
     </row>
     <row r="404">
@@ -12179,10 +12179,10 @@
         <v>9</v>
       </c>
       <c r="F404" t="n">
-        <v>3.23462414578588</v>
+        <v>3.2287403365166</v>
       </c>
       <c r="G404" t="n">
-        <v>0.17526341519227</v>
+        <v>0.169379605922991</v>
       </c>
     </row>
     <row r="405">
@@ -12202,10 +12202,10 @@
         <v>9</v>
       </c>
       <c r="F405" t="n">
-        <v>4.64807436918991</v>
+        <v>4.63085472347182</v>
       </c>
       <c r="G405" t="n">
-        <v>2.33337996086741</v>
+        <v>2.31616031514932</v>
       </c>
     </row>
     <row r="406">
@@ -12225,10 +12225,10 @@
         <v>9</v>
       </c>
       <c r="F406" t="n">
-        <v>3.40890818459559</v>
+        <v>3.40316237258207</v>
       </c>
       <c r="G406" t="n">
-        <v>0.734638990891772</v>
+        <v>0.728893178878247</v>
       </c>
     </row>
     <row r="407">
@@ -12248,10 +12248,10 @@
         <v>9</v>
       </c>
       <c r="F407" t="n">
-        <v>3.16303424851401</v>
+        <v>3.16012725344645</v>
       </c>
       <c r="G407" t="n">
-        <v>1.00798446188528</v>
+        <v>1.00507746681771</v>
       </c>
     </row>
     <row r="408">
@@ -12271,10 +12271,10 @@
         <v>9</v>
       </c>
       <c r="F408" t="n">
-        <v>3.10255673656995</v>
+        <v>3.09234073013601</v>
       </c>
       <c r="G408" t="n">
-        <v>0.512101999135064</v>
+        <v>0.501885992701119</v>
       </c>
     </row>
     <row r="409">
@@ -12294,10 +12294,10 @@
         <v>9</v>
       </c>
       <c r="F409" t="n">
-        <v>2.95293253935884</v>
+        <v>2.95028524857376</v>
       </c>
       <c r="G409" t="n">
-        <v>0.883044297583299</v>
+        <v>0.880397006798218</v>
       </c>
     </row>
     <row r="410">
@@ -12317,10 +12317,10 @@
         <v>9</v>
       </c>
       <c r="F410" t="n">
-        <v>7.30972117558402</v>
+        <v>7.2877535687453</v>
       </c>
       <c r="G410" t="n">
-        <v>1.20345630643256</v>
+        <v>1.18148869959384</v>
       </c>
     </row>
     <row r="411">
@@ -12340,10 +12340,10 @@
         <v>9</v>
       </c>
       <c r="F411" t="n">
-        <v>2.62231695831061</v>
+        <v>2.61234567901235</v>
       </c>
       <c r="G411" t="n">
-        <v>0.436019056961828</v>
+        <v>0.42604777766356</v>
       </c>
     </row>
     <row r="412">
@@ -12363,10 +12363,10 @@
         <v>9</v>
       </c>
       <c r="F412" t="n">
-        <v>3.42221289103506</v>
+        <v>3.40790298975538</v>
       </c>
       <c r="G412" t="n">
-        <v>0.439287567027656</v>
+        <v>0.424977665747977</v>
       </c>
     </row>
     <row r="413">
@@ -12386,10 +12386,10 @@
         <v>9</v>
       </c>
       <c r="F413" t="n">
-        <v>3.52132837102777</v>
+        <v>3.50827153451226</v>
       </c>
       <c r="G413" t="n">
-        <v>0.411485289715358</v>
+        <v>0.398428453199853</v>
       </c>
     </row>
     <row r="414">
@@ -12409,10 +12409,10 @@
         <v>9</v>
       </c>
       <c r="F414" t="n">
-        <v>5.65967712005938</v>
+        <v>5.63770794824399</v>
       </c>
       <c r="G414" t="n">
-        <v>0.568625622115382</v>
+        <v>0.546656450299993</v>
       </c>
     </row>
     <row r="415">
@@ -12432,10 +12432,10 @@
         <v>9</v>
       </c>
       <c r="F415" t="n">
-        <v>3.55533299949925</v>
+        <v>3.54291417165669</v>
       </c>
       <c r="G415" t="n">
-        <v>0.935743022278292</v>
+        <v>0.92332419443573</v>
       </c>
     </row>
     <row r="416">
@@ -12455,10 +12455,10 @@
         <v>9</v>
       </c>
       <c r="F416" t="n">
-        <v>4.25876010781671</v>
+        <v>4.24502955400322</v>
       </c>
       <c r="G416" t="n">
-        <v>0.505258707256488</v>
+        <v>0.491528153443</v>
       </c>
     </row>
     <row r="417">
@@ -12501,10 +12501,10 @@
         <v>9</v>
       </c>
       <c r="F418" t="n">
-        <v>2.35446313065977</v>
+        <v>2.34778121775026</v>
       </c>
       <c r="G418" t="n">
-        <v>0.325036443698834</v>
+        <v>0.318354530789324</v>
       </c>
     </row>
     <row r="419">
@@ -12524,10 +12524,10 @@
         <v>9</v>
       </c>
       <c r="F419" t="n">
-        <v>3.65022061772964</v>
+        <v>3.63273453093812</v>
       </c>
       <c r="G419" t="n">
-        <v>1.05588099508813</v>
+        <v>1.03839490829661</v>
       </c>
     </row>
     <row r="420">
@@ -12547,10 +12547,10 @@
         <v>9</v>
       </c>
       <c r="F420" t="n">
-        <v>4.18118466898955</v>
+        <v>4.16156670746634</v>
       </c>
       <c r="G420" t="n">
-        <v>0.79712379594189</v>
+        <v>0.777505834418684</v>
       </c>
     </row>
     <row r="421">
@@ -12570,10 +12570,10 @@
         <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>3.61313064551663</v>
+        <v>3.59728010528625</v>
       </c>
       <c r="G421" t="n">
-        <v>0.63277390584628</v>
+        <v>0.616923365615893</v>
       </c>
     </row>
     <row r="422">
@@ -12593,10 +12593,10 @@
         <v>9</v>
       </c>
       <c r="F422" t="n">
-        <v>2.79737903225806</v>
+        <v>2.78335005015045</v>
       </c>
       <c r="G422" t="n">
-        <v>0.774907122145705</v>
+        <v>0.760878140038092</v>
       </c>
     </row>
   </sheetData>
